--- a/test2.xlsx
+++ b/test2.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="000B66C3"/>
         <bgColor rgb="000B66C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFCCCC"/>
+        <bgColor rgb="00FFCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -80,6 +86,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment/>
     </xf>
   </cellXfs>
@@ -447,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,102 +858,106 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>10.48550/arXiv.2402.18950</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>PopALM: Popularity-aligned language models for social media trendy response prediction</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>Erxin Yu1,Jing Li1∗,Chunpu Xu</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>2024-05</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Comment Generation</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Motivated by the need to simulate mainstream public reactions on social media, this study identifies response popularity—quantified by "like" counts—as a crucial yet noisy signal for aligning language models with collective preferences.
 [翻译] 出于模拟社交媒体上主流公众反应的需求，本研究将通过“点赞数”量化的回复流行度视为一种关键信号，旨在将语言模型与群体偏好对齐，尽管该指标本身存在噪声。</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>The authors propose PopALM, which introduces a curriculum learning-enhanced Proximal Policy Optimization (CL-PPO) strategy to robustly align generation with popularity by mitigating the significant noise inherent in
 [翻译] 作者提出了 PopALM，该模型引入了一种增强了课程学习的近端策略优化（CL-PPO）策略，通过缓解原始互动指标中存在的显著噪声，稳健地将生成内容与流行度对齐。</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>The framework follows a sequential "SFT-RM-RL" pipeline, where the CL-PPO algorithm specifically incorporates reward enhancement, ranking, and self-paced sampling to transition training from high-confidence samples to complex scenarios, thereby filtering environmental noise.
 [翻译] 该框架遵循顺序的“有监督微调-奖励建模-强化学习”流程，其中CL-PPO算法特别结合了奖励增强、排序和自步采样机制，以实现从高置信度样本到复杂场景的过渡训练，从而过滤环境噪声。</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>Experiments on a large-scale Weibo benchmark demonstrate that PopALM outperforms state-of-the-art baselines in both automatic metrics and human evaluation, generating responses that are more specific and aligned with public sentiment.
 [翻译] 在大规模微博基准上的实验表明，PopALM 在自动指标和人工评估方面均优于最先进的基线模型，生成的回复更加具体且符合公众情绪。</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>A primary limitation lies in the reliance on "like" counts as the sole proxy for popularity, which may not fully capture multi-dimensional user engagement or generalize across different platform algorithms.
 [翻译] 一个主要的局限性在于依赖“点赞数”作为衡量流行度的单一代理指标，这可能无法完全捕捉多维度的用户参与度，也难以在不同平台的算法间泛化。</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>https://aclanthology.org/2024.lrec-main.1127/</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>https://github.com/ErxinYu/PopALM</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>LREC-COLING 2024</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] 中文标题：PopALM：面向社交媒体热门回复预测的流行度对齐语言模型</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
+        <is>
+          <t>[AI generated] **中文标题：** PopALM：面向社交媒体热门回复预测的流行度对齐语言模型  
+**论文分类：** 评论生成  
+**翻译说明：**  
+1. **PopALM** 保留英文缩写，采用音译“波普ALM”可能增加认知负担，直接使用原文缩写更符合学术惯例。  
+2. **Popularity-aligned** 译为“流行度对齐”，准确体现模型通过强化学习与群体偏好对齐的核心机制。</t>
+        </is>
+      </c>
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>先练“选手”（SFT），再练“裁判”（RM），最后让“裁判”指导“选手”训练（RL）</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>figures/PopALM.png</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>Social media platforms are daily exhibiting millions of events. To preliminarily predict the mainstream public reaction to these events, we study trendy response prediction to automatically generate top-liked user replies to social media events. While previous works focus on generating responses without factoring in popularity, we propose Popularity-Aligned Language Models (PopALM) to distinguish responses liked by a larger audience through reinforcement learning. Recognizing the noisy labels from user “likes”, we tailor-make curriculum learning in proximal policy optimization (PPO) to help models capture the essential samples for easy-to-hard training. In experiments, we build a large-scale Weibo dataset for trendy response prediction, and its results show that PopALM can help boost the performance of advanced language models.</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>[备注]该论文在会议上没有doi，使用的是arxiv版的doi【经典微调+RL范式】噪声指的是受各种因素影响，点赞数的具体值难以公平对比&lt;br&gt;[引用文]
 In the pursuit of simulating collective social behaviors rather than merely generating coherent text, aligning models with mainstream public sentiment becomes critical. However, social feedback signals, such as "like" counts, are often fraught with noise stemming from non-content factors like posting time or author influence. To address this, PopALM (Yu et al., 2024) proposes a PPO algorithm enhanced by curriculum learning. This approach operates on the premise that models should prioritize high-confidence samples—where popularity strongly correlates with content quality—to establish a robust foundation. By adopting a self-paced sampling strategy that transitions from easy-to-learn instances to noisier ones, PopALM effectively mitigates the significant noise inherent in using "like" counts as popularity indicators.
@@ -952,91 +965,212 @@
 在追求模拟群体社会行为而非仅仅生成连贯文本的过程中，将模型与主流公众情绪对齐变得至关重要。然而，诸如“点赞数”之类的社会反馈信号往往充满了源自非内容因素（如发布时间或作者影响力）的噪声。针对这一问题，PopALM (Yu et al., 2024) 提出了一种增强了课程学习的PPO算法。该方法基于这样一个前提：模型应优先学习那些置信度高（即流行度与内容质量强相关）的样本，从而打下坚实的基础。通过采用一种从易学样本到噪声样本过渡的自步采样策略，PopALM 有效缓解了点赞数作为热度指标存在大量噪声的问题。</t>
         </is>
       </c>
-      <c r="T4" s="3" t="b">
+      <c r="T4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="U4" s="3" t="inlineStr"/>
-      <c r="V4" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-25 09:22:13</t>
-        </is>
-      </c>
-      <c r="W4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3" t="inlineStr"/>
-      <c r="Y4" s="3" t="b">
+      <c r="U4" s="4" t="inlineStr"/>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>2026-01-25 11:03:16</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="inlineStr"/>
+      <c r="Y4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
+          <t>10.48550/arXiv.2402.18950</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>PopALM: Popularity-aligned language models for social media trendy response prediction</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Erxin Yu1,Jing Li1∗,Chunpu Xu</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Comment Generation</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Motivated by the need to simulate mainstream public reactions on social media, this study identifies response popularity—quantified by "like" counts—as a crucial yet noisy signal for aligning language models with collective preferences.
+[翻译] 出于模拟社交媒体上主流公众反应的需求，本研究将通过“点赞数”量化的回复流行度视为一种关键信号，旨在将语言模型与群体偏好对齐，尽管该指标本身存在噪声。</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>The authors propose PopALM, which introduces a curriculum learning-enhanced Proximal Policy Optimization (CL-PPO) strategy to robustly align generation with popularity by mitigating the significant noise inherent in
+[翻译] 作者提出了 PopALM，该模型引入了一种增强了课程学习的近端策略优化（CL-PPO）策略，通过缓解原始互动指标中存在的显著噪声，稳健地将生成内容与流行度对齐。</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>The framework follows a sequential "SFT-RM-RL" pipeline, where the CL-PPO algorithm specifically incorporates reward enhancement, ranking, and self-paced sampling to transition training from high-confidence samples to complex scenarios, thereby filtering environmental noise.
+[翻译] 该框架遵循顺序的“有监督微调-奖励建模-强化学习”流程，其中CL-PPO算法特别结合了奖励增强、排序和自步采样机制，以实现从高置信度样本到复杂场景的过渡训练，从而过滤环境噪声。</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Experiments on a large-scale Weibo benchmark demonstrate that PopALM outperforms state-of-the-art baselines in both automatic metrics and human evaluation, generating responses that are more specific and aligned with public sentiment.
+[翻译] 在大规模微博基准上的实验表明，PopALM 在自动指标和人工评估方面均优于最先进的基线模型，生成的回复更加具体且符合公众情绪。</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>A primary limitation lies in the reliance on "like" counts as the sole proxy for popularity, which may not fully capture multi-dimensional user engagement or generalize across different platform algorithms.
+[翻译] 一个主要的局限性在于依赖“点赞数”作为衡量流行度的单一代理指标，这可能无法完全捕捉多维度的用户参与度，也难以在不同平台的算法间泛化。</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>https://aclanthology.org/2024.lrec-main.1127/</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/ErxinYu/PopALM</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>LREC-COLING 2024</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] 中文标题：PopALM：面向社交媒体热门回复预测的流行度对齐语言模型</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>先练“选手”（SFT），再练“裁判”（RM），最后让“裁判”指导“选手”训练（RL）</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>figures/PopALM.png</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Social media platforms are daily exhibiting millions of events. To preliminarily predict the mainstream public reaction to these events, we study trendy response prediction to automatically generate top-liked user replies to social media events. While previous works focus on generating responses without factoring in popularity, we propose Popularity-Aligned Language Models (PopALM) to distinguish responses liked by a larger audience through reinforcement learning. Recognizing the noisy labels from user “likes”, we tailor-make curriculum learning in proximal policy optimization (PPO) to help models capture the essential samples for easy-to-hard training. In experiments, we build a large-scale Weibo dataset for trendy response prediction, and its results show that PopALM can help boost the performance of advanced language models.</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>[备注]该论文在会议上没有doi，使用的是arxiv版的doi【经典微调+RL范式】噪声指的是受各种因素影响，点赞数的具体值难以公平对比&lt;br&gt;[引用文]
+In the pursuit of simulating collective social behaviors rather than merely generating coherent text, aligning models with mainstream public sentiment becomes critical. However, social feedback signals, such as "like" counts, are often fraught with noise stemming from non-content factors like posting time or author influence. To address this, PopALM (Yu et al., 2024) proposes a PPO algorithm enhanced by curriculum learning. This approach operates on the premise that models should prioritize high-confidence samples—where popularity strongly correlates with content quality—to establish a robust foundation. By adopting a self-paced sampling strategy that transitions from easy-to-learn instances to noisier ones, PopALM effectively mitigates the significant noise inherent in using "like" counts as popularity indicators.
+[翻译]
+在追求模拟群体社会行为而非仅仅生成连贯文本的过程中，将模型与主流公众情绪对齐变得至关重要。然而，诸如“点赞数”之类的社会反馈信号往往充满了源自非内容因素（如发布时间或作者影响力）的噪声。针对这一问题，PopALM (Yu et al., 2024) 提出了一种增强了课程学习的PPO算法。该方法基于这样一个前提：模型应优先学习那些置信度高（即流行度与内容质量强相关）的样本，从而打下坚实的基础。通过采用一种从易学样本到噪声样本过渡的自步采样策略，PopALM 有效缓解了点赞数作为热度指标存在大量噪声的问题。</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-25 09:22:13</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="inlineStr"/>
+      <c r="Y5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
           <t>10.1609/aaai.v39i12.33430</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Towards Effective, Efficient and Unsupervised Social Event Detection in the Hyperbolic Space</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Xiaoyan Yu,Yifan Wei,Shuaishuai Zhou,Zhiwei Yang,Li Sun,Hao Peng,Liehuang Zhu*,Philip S. Yu</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>Event Extraction</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>Social event detection on social media platforms faces significant challenges due to the large scale, dynamic nature, and complex relational structures inherent in user-generated content. Existing methods often suffer from inefficiency in processing massive message streams and limited expressive power in capturing hierarchical event structures.
 [翻译]：由于用户生成内容规模庞大、动态性强且关系结构复杂，社交媒体平台上的社交事件检测面临显著挑战。现有方法在处理海量消息流时常效率低下，且在捕捉层次化事件结构方面表达能力有限。</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>The paper introduces HyperSED, a novel unsupervised framework that reduces computational overhead through a two-stage compression mechanism—semantic-based anchor construction and graph sparsification—and represents event clusters via a differentiable partitioning tree learned in hyperbolic space. This approach effectively captures hierarchical and nested event structures without requiring predefined cluster counts.
 [翻译]：本文提出HyperSED，一种新颖的无监督框架，通过基于语义的锚点构建与图稀疏化两阶段压缩机制降低计算开销，并利用在双曲空间中学习的可微划分树表示事件聚类。该方法无需预设聚类数量，即可有效捕捉层次化与嵌套的事件结构。</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>The framework first constructs a semantic anchor graph to compress message nodes and simplify relational edges. It then maps the anchor graph into hyperbolic space and employs a hyperbolic graph autoencoder to learn structure-aware representations. Finally, a partitioning tree is built and optimized via differentiable structural information minimization, yielding hierarchical event clusters.
 [翻译]：该框架首先构建语义锚点图以压缩消息节点并简化关系边，随后将锚点图映射至双曲空间，采用双曲图自编码器学习结构感知表示，最终通过可微结构信息最小化构建并优化划分树，得到层次化事件簇</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>Experiments on real-world Twitter datasets demonstrate that HyperSED achieves competitive performance in normalized mutual information, adjusted mutual information, and adjusted Rand index, while improving computational efficiency by up to 37 times compared to state-of-the-art unsupervised baselines.
 [翻译]：在真实Twitter数据集上的实验表明，HyperSED在归一化互信息、调整互信息与调整兰德指数上均取得具有竞争力的性能，同时相比前沿无监督基线，计算效率提升最高达37倍。</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>The performance may marginally decline in some message blocks due to potential errors in anchor construction, where semantically distinct messages are incorrectly grouped. Additionally, the efficiency gains come with a slight trade-off in clustering granularity control.
 [翻译]：由于锚点构建中可能出现语义不同消息被错误分组的情况，该模型在部分消息块上的性能可能略有下降。此外，效率提升在一定程度上以聚类粒度控制的精细度为代价。</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>https://ojs.aaai.org/index.php/AAAI/article/view/33430</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr"/>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr"/>
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>AAAI</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>[AI generated] 中文标题：面向双曲空间中高效、有效且无监督的社交事件检测
 （说明：该翻译遵循以下原则：
@@ -1046,120 +1180,120 @@
 4. 领域</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>通过两层压缩减少开销（简化边、节点聚合为锚点），通过划分树表示事件聚类</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>figures/HyperSED.png</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>The vast, complex, and dynamic nature of social message data has posed challenges to social event detection (SED). Despite considerable effort, these challenges persist, often resulting in inadequately expressive message representations (ineffective) and prolonged learning durations (inefficient). In response to the challenges, this work introduces an unsupervised framework, HyperSED (Hyperbolic SED). Specifically, the proposed framework first models social messages into semantic-based message anchors, and then leverages the structure of the anchor graph and the expressiveness of the hyperbolic space to acquire structure- and geometry-aware anchor representations. Finally, HyperSED builds the partitioning tree of the anchor message graph by incorporating differentiable structural information as the reflection of the detected events. Extensive experiments on public datasets demonstrate HyperSED's competitive performance, along with a substantial improvement in efficiency compared to the current state-of-the-art unsupervised paradigm. Statistically, HyperSED boosts incremental SED by an average of 2%, 2%, and 25% in NMI, AMI, and ARI, respectively; enhancing efficiency by up to 37.41 times and at least 12.10 times, illustrating the advancement of the proposed framework.</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>[notes]为什么用双曲空间？ 现实世界的事件和话题往往具有层次结构（如“体育 -&gt; 足球 -&gt; 世界杯”）。双曲空间的几何特性（指数级增长的空间）能更自然、更紧凑地嵌入这种树状或层次化数据。&lt;br&gt;[通俗核心]通过消息各属性的相同性（用户、标签）构建网络；通过方法精简网络边【压缩1】；根据相关性将相似信息聚类为锚点，锚点之间有节点相连的构建边，得到锚点图【压缩2】；映射到双曲空间进行自监督重建训练（图自编码器GAE）获得聚合模型；模型输出根据特征向量距离自底向上聚合形成划分树，该树即表示消息各层级聚类关系。每个聚类节点都代表了一个某层级事件（如体育、世界杯、新冠）[引用文]HyperSED demonstrates how structural and geometric inductive biases can be integrated into scalable unsupervised learning (Yu et al., 2025). By compressing the message graph into semantic anchors and learning a partitioning tree in hyperbolic space—where internal nodes formed through bottom‑up aggregation represent concrete event categories—the framework not only enhances detection efficiency but also captures the multi‑scale organization of social events.
 [翻译]HyperSED展示了如何将结构与几何归纳偏置融入可扩展的无监督学习（Yu et al., 2025）。该框架通过将消息图压缩为语义锚点，并在双曲空间中学习划分树——其中通过自底向上聚合形成的内部节点代表具体的事件类别——不仅提升了检测效率，还捕捉了社交事件的多尺度组织特征。</t>
         </is>
       </c>
-      <c r="T5" s="3" t="b">
+      <c r="T6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr"/>
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>2026-01-25 09:22:21</t>
         </is>
       </c>
-      <c r="W5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="inlineStr"/>
-      <c r="Y5" s="3" t="b">
+      <c r="W6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="inlineStr"/>
+      <c r="Y6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>10.1007/978-981-99-8181-6_33</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>A Three-Stage Framework for Event-Event Relation Extraction with Large Language Model</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Feng Huang,Qiang Huang,YueTong Zhao,ZhiXiao Qi,BingKun Wang,YongFeng Huang,SongBin Li</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>Event Extraction</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F7" s="3" t="inlineStr">
         <is>
           <t>Traditional event relation extraction methods rely heavily on annotated data, which is costly and difficult to scale. The zero-shot capability of large language models remains underexplored for temporal and causal relation tasks.
 [翻译]
 传统事件关系提取方法严重依赖标注数据，成本高且难以扩展。大语言模型在时序与因果关系任务中的零样本能力尚未充分挖掘。</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>A three-stage framework (ThreeEERE) is proposed, integrating an improved Auto-CoT prompting strategy with local knowledge retrieval to enable zero-shot event-event relation extraction without task-specific training.
 [翻译]
 提出三阶段框架ThreeEERE，融合改进的Auto-CoT提示策略与本地知识检索，实现无需任务特定训练的零样本事件-关系提取。</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>构建示范样例（包含cot部分）-&gt;检索本地知识-&gt;取高于阈值的答案</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>ThreeEERE outperforms standard prompting methods and matches or surpasses several supervised baselines in event, temporal, and causal relation extraction across multiple datasets.
 [翻译]
 在多个数据集上的事件、时序与因果关系提取任务中，ThreeEERE优于标准提示方法，并达到或超越若干监督基线。</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>Potential inconsistency between generated reasoning chains and gold answers in demonstrations may introduce noise and affect model stability.And it relies on the construction of a local knowledge base.
 [翻译]
 示范中生成的推理链与标准答案之间可能存在不一致，可能引入噪声并影响模型稳定性。且依赖于本地知识库构建</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K7" s="3" t="inlineStr">
         <is>
           <t>https://link.springer.com/10.1007/978-981-99-8181-6_33</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr">
         <is>
           <t>Neural Information Processing</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N7" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 基于大语言模型的事件-事件关系提取三阶段框架
 **说明：** 此翻译准确传达了原标题的核心信息：
@@ -1167,152 +1301,31 @@
 2.  **“for Event-Event Relation Extraction”** 译为 **“事件-事件关系提取”**，符合计算机科学和自然语言处理领域的专业术语习惯（“关系抽取”或“</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>通过结构化prompt构建的，无训练零样本的，依赖于本地知识库的，事件抽取方法</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>figures/ThreeEERE.png</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>Expanding the parameter count of a large language model (LLM) alone is insufficient to achieve satisfactory outcomes in natural language processing tasks, specifically event extraction (EE), event temporal relation extraction (ETRE), and event causal relation extraction (ECRE). To tackle these challenges, we propose a novel three-stage extraction framework (ThreeEERE) that integrates an improved automatic chain of thought prompting (Auto-CoT) with LLM and is tailored based on a golden rule to maximize event and relation extraction precision. The three stages include constructing examples in each category, federating local knowledge to extract relationships between events, and selecting the best answer. By following these stages, we can achieve our objective. Although supervised models dominate for these tasks, our experiments on three types of extraction tasks demonstrate that utilizing these three stages approach yields significant results in event extraction and event relation extraction, even surpassing some supervised model methods in the extraction task.</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>[notes]聚类只是为了选择最接近聚类中心的测试样本，作为示范样例（因为接近中心意味着更能代表该聚类语义特征），之后的操作就是输入测试样例和这些示范样例（答案部分替换为标准答案）以及检索得到的本地知识，最终取超过阈值的结果&lt;br&gt;[引用文]The three-stage framework proposed by Huang et al. (2024) integrates chain-of-thought reasoning with localized knowledge, demonstrating the feasibility of eliciting zero-shot inference of complex event relations from large language models through meticulously designed prompts, without the need for supervised fine-tuning.
 [翻译]
 Huang等人（2024）提出的三阶段框架，将思维链推理与本地化知识相结合，证明了通过精心设计的提示词，无需监督微调即可从大语言模型中激发出对复杂事件关系的零样本推断能力。</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="3" t="inlineStr"/>
-      <c r="V6" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-25 09:22:21</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="inlineStr"/>
-      <c r="Y6" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>10.1609/icwsm.v19i1.35818</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Identifying and Investigating Global News Coverage of Critical Events Such as Disasters and Terrorist Attacks</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>Erica Cai1,Xi Chen1,Reagan Grey Keeney1,Ethan Zuckerman1,Brendan O'Connor1,Przemyslaw A.Grabowicz</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>2025-06-07</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Event Extraction</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>Traditional computational studies of news coverage bias are hindered by the inability to efficiently and accurately identify articles discussing the same real-world event across massive, multilingual corpora without costly, language-specific training data.
-[翻译] 传统的新闻覆盖偏见计算研究面临一个瓶颈：难以在不依赖昂贵且语言特定的训练数据前提下，高效、精确地从大规模多语言语料库中识别出讨论同一现实事件的报道。</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>It introduces FAME, a scalable, zero-shot framework that utilizes minimalist “event fingerprints” (time, location, class) to match news articles across languages via a two-stage screening pipeline, eliminating the need for annotated training data.
-[翻译] 其提出了FAME框架，这是一个可扩展的零样本方法。它利用极简的“事件指纹”（时间、地点、类别），通过一个两级筛选流程实现跨语言新闻文章匹配，从而无需标注训练数据。</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>The method employs a two-stage pipeline: 1) Heuristic keyword filtering to recall candidate articles within a time window, followed by 2) a semantic filter using a large language model (LLM) for question-answering to achieve high-precision event-article matching.
-[翻译] 该方法采用一个两级处理流程：1）基于关键词的启发式过滤，用于在时间窗口内召回候选文章；2）利用大语言模型进行问答的语义过滤器，以实现高精度的事件-文章匹配。</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>FAME achieved state-of-the-art performance (average F1 &gt; 94% across English, Spanish, and French), and its application revealed that media attention to disasters and terrorist attacks is strongly correlated with death tolls, the GDP of the affected country, and bilateral trade volume.
-[翻译] FAME取得了先进的性能（在英、西、法语上平均F1&gt;94%）。应用该方法发现，媒体对灾害和恐怖袭击的关注度，与死亡人数、受影响国家的GDP以及双边贸易额高度相关。</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>The reliance on a two-stage screening pipeline depends on the quality of external event databases (e.g., GTD), and the minimalist fingerprint design, while enabling scalability, can lead to ambiguities for events with similar metadata.
-[翻译] 两级筛选流程依赖于外部事件数据库（如GTD）的质量，且极简的指纹设计虽然保证了可扩展性，但可能导致具有相似元数据的事件产生匹配歧义。</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35818</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>https://github.com/social-info-lab/disaster_event_analysis</t>
-        </is>
-      </c>
-      <c r="M7" s="3" t="inlineStr">
-        <is>
-          <t>ICWSM</t>
-        </is>
-      </c>
-      <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] **中文标题：** 灾害与恐怖袭击等重大事件的全球新闻报道识别与调查分析
-**说明：** 该翻译准确传达了原标题的核心信息，即“识别”与“调查/分析”全球新闻报道。采用“重大事件”概括“Critical Events”，并使用“灾害与恐怖袭击”具体化其范畴，符合中文论文标题简洁、专业的学术风格。</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>两级匹配筛选要求新闻，关键词匹配初步筛选（关键词通过启发式方法获得）-&gt;事件抽取</t>
-        </is>
-      </c>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>figures/FAME.png;figures/FAME2.png</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>Comparative studies of news coverage are challenging to conduct because methods to identify news articles about the same event in different languages require expertise that is difficult to scale. We introduce an AI-powered method for identifying news articles based on an event fingerprint, which is a minimal set of metadata required to identify critical events. Our event coverage identification method, FINGERPRINT TO ARTICLE MATCHING FOR EVENTS (FAME), efficiently identifies news articles about critical world events, specifically terrorist attacks and several types of natural disasters. FAME does not require training data and is able to automatically and efficiently identify news articles that discuss an event given its fingerprint: time, location, and class (such as storm or flood). The method achieves state-of-the-art performance and scales to massive databases of tens of millions of news articles and hundreds of events happening globally. We use FAME to identify 27,441 articles that cover 470 natural disaster and terrorist attack events that happened in 2020. To this end, we use a massive database of news articles in three languages from MediaCloud, and three widely used, expert-curated databases of critical events: EM-DAT, USGS, and GTD. Our case study reveals patterns consistent with prior literature: coverage of disasters and terrorist attacks correlates to death counts, to the GDP of a country where the event occurs, and to trade volume between the reporting country and the country where the event occurred. We share our NLP annotations and cross-country media attention data to support the efforts of researchers and media monitoring organizations.</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="inlineStr">
-        <is>
-          <t>[引用文]Cai et al. (2025) propose the FAME framework, aiming to efficiently and accurately identify news reports on specific events from massive, multilingual news streams. Its innovation lies in a two-stage, zero-shot methodology. The framework first applies heuristic filtering using event “fingerprints” (time, location, category) to retrieve candidate articles, followed by a refinement step leveraging an LLM for precise event-article matching. This approach enables scalable, training-free analysis, successfully linking over 27,000 articles to 470 global events.
-[翻译]
-Cai等人(2025)提出的FAME框架，旨在从海量、多语言的新闻流中高效、精确地识别出关于特定事件的报道，其创新在于一种两级、零样本的方法。它首先使用事件“指纹”（时间、地点、类别）进行启发式过滤以获取候选文章，随后通过基于LLM进行事件匹配。这实现了可扩展的、免训练的分析，成功将超过2.7万篇文章与470个全球事件关联起来。</t>
         </is>
       </c>
       <c r="T7" s="3" t="b">
@@ -1321,7 +1334,7 @@
       <c r="U7" s="3" t="inlineStr"/>
       <c r="V7" s="3" t="inlineStr">
         <is>
-          <t>2026-01-25 09:22:13</t>
+          <t>2026-01-25 09:22:21</t>
         </is>
       </c>
       <c r="W7" s="3" t="b">
@@ -1335,74 +1348,195 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
+          <t>10.1609/icwsm.v19i1.35818</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Identifying and Investigating Global News Coverage of Critical Events Such as Disasters and Terrorist Attacks</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Erica Cai1,Xi Chen1,Reagan Grey Keeney1,Ethan Zuckerman1,Brendan O'Connor1,Przemyslaw A.Grabowicz</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Event Extraction</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Traditional computational studies of news coverage bias are hindered by the inability to efficiently and accurately identify articles discussing the same real-world event across massive, multilingual corpora without costly, language-specific training data.
+[翻译] 传统的新闻覆盖偏见计算研究面临一个瓶颈：难以在不依赖昂贵且语言特定的训练数据前提下，高效、精确地从大规模多语言语料库中识别出讨论同一现实事件的报道。</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>It introduces FAME, a scalable, zero-shot framework that utilizes minimalist “event fingerprints” (time, location, class) to match news articles across languages via a two-stage screening pipeline, eliminating the need for annotated training data.
+[翻译] 其提出了FAME框架，这是一个可扩展的零样本方法。它利用极简的“事件指纹”（时间、地点、类别），通过一个两级筛选流程实现跨语言新闻文章匹配，从而无需标注训练数据。</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>The method employs a two-stage pipeline: 1) Heuristic keyword filtering to recall candidate articles within a time window, followed by 2) a semantic filter using a large language model (LLM) for question-answering to achieve high-precision event-article matching.
+[翻译] 该方法采用一个两级处理流程：1）基于关键词的启发式过滤，用于在时间窗口内召回候选文章；2）利用大语言模型进行问答的语义过滤器，以实现高精度的事件-文章匹配。</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>FAME achieved state-of-the-art performance (average F1 &gt; 94% across English, Spanish, and French), and its application revealed that media attention to disasters and terrorist attacks is strongly correlated with death tolls, the GDP of the affected country, and bilateral trade volume.
+[翻译] FAME取得了先进的性能（在英、西、法语上平均F1&gt;94%）。应用该方法发现，媒体对灾害和恐怖袭击的关注度，与死亡人数、受影响国家的GDP以及双边贸易额高度相关。</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>The reliance on a two-stage screening pipeline depends on the quality of external event databases (e.g., GTD), and the minimalist fingerprint design, while enabling scalability, can lead to ambiguities for events with similar metadata.
+[翻译] 两级筛选流程依赖于外部事件数据库（如GTD）的质量，且极简的指纹设计虽然保证了可扩展性，但可能导致具有相似元数据的事件产生匹配歧义。</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35818</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/social-info-lab/disaster_event_analysis</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>ICWSM</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] **中文标题：** 灾害与恐怖袭击等重大事件的全球新闻报道识别与调查分析
+**说明：** 该翻译准确传达了原标题的核心信息，即“识别”与“调查/分析”全球新闻报道。采用“重大事件”概括“Critical Events”，并使用“灾害与恐怖袭击”具体化其范畴，符合中文论文标题简洁、专业的学术风格。</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>两级匹配筛选要求新闻，关键词匹配初步筛选（关键词通过启发式方法获得）-&gt;事件抽取</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>figures/FAME.png;figures/FAME2.png</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>Comparative studies of news coverage are challenging to conduct because methods to identify news articles about the same event in different languages require expertise that is difficult to scale. We introduce an AI-powered method for identifying news articles based on an event fingerprint, which is a minimal set of metadata required to identify critical events. Our event coverage identification method, FINGERPRINT TO ARTICLE MATCHING FOR EVENTS (FAME), efficiently identifies news articles about critical world events, specifically terrorist attacks and several types of natural disasters. FAME does not require training data and is able to automatically and efficiently identify news articles that discuss an event given its fingerprint: time, location, and class (such as storm or flood). The method achieves state-of-the-art performance and scales to massive databases of tens of millions of news articles and hundreds of events happening globally. We use FAME to identify 27,441 articles that cover 470 natural disaster and terrorist attack events that happened in 2020. To this end, we use a massive database of news articles in three languages from MediaCloud, and three widely used, expert-curated databases of critical events: EM-DAT, USGS, and GTD. Our case study reveals patterns consistent with prior literature: coverage of disasters and terrorist attacks correlates to death counts, to the GDP of a country where the event occurs, and to trade volume between the reporting country and the country where the event occurred. We share our NLP annotations and cross-country media attention data to support the efforts of researchers and media monitoring organizations.</t>
+        </is>
+      </c>
+      <c r="R8" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S8" s="3" t="inlineStr">
+        <is>
+          <t>[引用文]Cai et al. (2025) propose the FAME framework, aiming to efficiently and accurately identify news reports on specific events from massive, multilingual news streams. Its innovation lies in a two-stage, zero-shot methodology. The framework first applies heuristic filtering using event “fingerprints” (time, location, category) to retrieve candidate articles, followed by a refinement step leveraging an LLM for precise event-article matching. This approach enables scalable, training-free analysis, successfully linking over 27,000 articles to 470 global events.
+[翻译]
+Cai等人(2025)提出的FAME框架，旨在从海量、多语言的新闻流中高效、精确地识别出关于特定事件的报道，其创新在于一种两级、零样本的方法。它首先使用事件“指纹”（时间、地点、类别）进行启发式过滤以获取候选文章，随后通过基于LLM进行事件匹配。这实现了可扩展的、免训练的分析，成功将超过2.7万篇文章与470个全球事件关联起来。</t>
+        </is>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3" t="inlineStr"/>
+      <c r="V8" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-25 09:22:13</t>
+        </is>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="inlineStr"/>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
           <t>10.1609/aaai.v38i16.29730</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Is a Large Language Model a Good Annotator for Event Extraction?</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Ruirui Chen1,Chengwei Qin,Weifeng Jiang,Dongkyu Choi</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>2024-03-24</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Event Extraction</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>在提示中使用上下文示例来引导大语言模型生成与目标基准数据集分布和标注模式对齐的新样本，从而直接解决数据不平衡问题。</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>[AI generated] Employing LLMs as expert annotators with in-context examples to generate distribution-aligned data, directly addressing data scarcity and imbalance.
 [翻译]
 利用大语言模型作为专家标注器，结合上下文示例生成分布对齐的数据，直接解决数据稀缺与不平衡问题。</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>针对“训练样本稀少的（长尾）事件类型，使用合适的prompt模板（包含真实例子）要求LLM生成标注，进行质量筛选，合并到原始数据集，最终通过实验与合并前的效果比较</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Fine-tuning models like BERT-CRF on the GPT-4-augmented ACE 2005 data led to consistent F1-score improvements in both Event Detection and Argument Extraction tasks, proving the high utility of LLM-generated annotations as a training resource.
 [翻译]
 在GPT-4增强的ACE 2005数据上微调BERT-CRF等模型，在事件检测和论元抽取任务中均带来了F1分数的持续提升，证明了LLM生成的标注作为训练资源的高效用。</t>
         </is>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>高度依赖LLM自身能力</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>https://ojs.aaai.org/index.php/AAAI/article/view/29730</t>
         </is>
       </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>https://github.com/shiqinghuayi19/LLMforEvent</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>AAAI</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：大语言模型是事件抽取的优秀标注工具吗？**
 **翻译说明：**
@@ -1411,127 +1545,127 @@
 3.  **学术风格**：以疑问句式呈现</t>
         </is>
       </c>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>[AI generated] This method uses LLMs as expert annotators to generate high-quality training data, akin to employing a master chef to prepare ingredients for a specialized dish. [翻译]该方法利用大语言模型作为专家标注员生成高质量训练数据，如同聘请主厨为特色菜肴准备食材。</t>
         </is>
       </c>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>figures/Annotator for Event Extraction.png</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>Event extraction is an important task in natural language processing that focuses on mining event-related information from unstructured text. Despite considerable advancements, it is still challenging to achieve satisfactory performance in this task, and issues like data scarcity and imbalance obstruct progress. In this paper, we introduce an innovative approach where we employ Large Language Models (LLMs) as expert annotators for event extraction. We strategically include sample data from the training dataset in the prompt as a reference, ensuring alignment between the data distribution of LLM-generated samples and that of the benchmark dataset. This enables us to craft an augmented dataset that complements existing benchmarks, alleviating the challenges of data imbalance and scarcity and thereby enhancing the performance of fine-tuned models. We conducted extensive experiments to validate the efficacy of our proposed method, and we believe that this approach holds great potential for propelling the development and application of more advanced and reliable event extraction systems in real-world scenarios.</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>[引用文]To overcome data scarcity in specialized tasks within event extraction, large language models (LLMs) can be utilized as data augmentation tools. The work by Chen et al. (2024) exemplifies this by employing LLMs as structured annotators: using few-shot prompting with models such as GPT-4, they generate synthetic training data aligned with target schemas. This augmentation strategy effectively alleviates long-tail data imbalance and delivers measurable performance improvements for downstream extraction models.
 [翻译]
 为克服事件抽取领域专业任务中的数据稀缺问题，可以将大语言模型作为数据增强工具。Chen等人(2024)的研究通过将大语言模型用作结构化标注器来展示这一点：他们使用少量示例提示GPT-4等模型，生成与目标模式对齐的合成训练数据。这种增强策略有效缓解了长尾数据不平衡问题，为下游抽取模型带来了可观的性能提升。</t>
         </is>
       </c>
-      <c r="T8" s="3" t="b">
+      <c r="T9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U8" s="3" t="inlineStr"/>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>2026-01-25 09:22:13</t>
         </is>
       </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="inlineStr"/>
-      <c r="Y8" s="3" t="b">
+      <c r="W9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="inlineStr"/>
+      <c r="Y9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>10.1109/TPAMI.2022.3144993</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Reinforced, Incremental and Cross-Lingual Event Detection From Social Messages</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Hao Peng,Ruitong Zhang,Shaoning Li,Yuwei Cao,Shirui Pan,Philip S. Yu</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>Event Extraction</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>Event detection in social media streams is challenged by ambiguous event features, dispersed text content, multilingualism, and long-tail distribution, where traditional methods struggle in dynamic, incremental, and cross-lingual scenarios.
 [翻译]
 社交媒体流中的事件检测面临事件特征模糊、文本内容分散、多语言和长尾分布等挑战，传统方法在动态、增量和跨语言场景中表现不佳。</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>Its core advancement lies in enabling continuous, cross-lingual social event detection through a life-cycle mechanism that dynamically updates both the message graph and model without full retraining.
 [翻译]
 其核心进步在于，通过一个能动态更新消息图与模型而无需全量重训练的生命周期机制，实现了持续的、跨语言的社交事件检测。</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>The pipeline includes: (1) constructing a weighted multi-relational graph from social messages; (2) using multi-agent reinforcement learning to learn relation-specific thresholds for neighbor selection and aggregation; (3) training with balanced sampling-based contrastive learning; (4) clustering via DRL-optimized DBSCAN; and (5) enabling incremental updates and cross-lingual transfer via parameter preservation.
 [翻译]
 流程包括：(1) 从社交消息构建加权多关系图；(2) 使用多智能体强化学习学习关系特定的阈值以进行邻居选择和聚合；(3) 通过基于平衡采样的对比学习训练；(4) 使用DRL优化的DBSCAN聚类；(5) 通过参数保留支持增量更新和跨语言迁移。</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>On Twitter streams, FinEvent significantly outperforms baselines in offline, online, and cross-lingual detection tasks, with improvements of 14%-118% in NMI, 8%-170% in AMI, and 2%-21% in ARI, demonstrating robust performance across diverse settings.
 [翻译]
 在Twitter流数据上，FinEvent在离线、在线和跨语言检测任务中显著优于基线，NMI提升14%-118%，AMI提升8%-170%，ARI提升2%-21%，展现了在不同设置下的鲁棒性能。</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>Limitations include high computational complexity, dependence on external translation for low-resource languages, potential knowledge forgetting during incremental updates, and limited generalization due to evaluation primarily on Twitter data.
 [翻译]
 局限性包括计算复杂度高、对低资源语言依赖外部翻译、增量更新中可能遗忘早期知识，以及由于主要基于Twitter数据评估导致的泛化性有限。</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9693189/</t>
         </is>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>https://github.com/RingBDStack/FinEvent</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>IEEE Transactions on Pattern Analysis and Machine Intelligence</t>
         </is>
       </c>
-      <c r="N9" s="3" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 基于强化、增量与跨语言学习的社交媒体消息事件检测
 **说明：** 该翻译准确传达了原标题“Reinforced, Incremental and Cross-Lingual Event Detection From Social Messages”的核心要素：
@@ -1540,117 +1674,117 @@
 *   **“Cross</t>
         </is>
       </c>
-      <c r="O9" s="3" t="inlineStr">
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>[AI generated] FinEvent is like a multilingual, self-optimizing news curator that continuously learns and adapts from live social media streams. [翻译] FinEvent 如同一个多语言的、自优化的新闻策展人，能从实时社交媒体流中持续学习与适应。</t>
         </is>
       </c>
-      <c r="P9" s="3" t="inlineStr">
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>figures/FinEvent.png</t>
         </is>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="Q10" s="3" t="inlineStr">
         <is>
           <t>Detecting hot social events (e.g., political scandal, momentous meetings, natural hazards, etc.) from social messages is crucial as it highlights significant happenings to help people understand the real world. On account of the streaming nature of social messages, incremental social event detection models in acquiring, preserving, and updating messages over time have attracted great attention. However, the challenge is that the existing event detection methods towards streaming social messages are generally confronted with ambiguous events features, dispersive text contents, and multiple languages, and hence result in low accuracy and generalization ability. In this paper, we present a novel reinForced, incremental and cross-lingual social Event detection architecture, namely FinEvent, from streaming social messages. Concretely, we first model social messages into heterogeneous graphs integrating both rich meta-semantics and diverse meta-relations, and convert them to weighted multi-relational message graphs. Second, we propose a new reinforced weighted multi-relational graph neural network framework by using a Multi-agent Reinforcement Learning algorithm to select optimal aggregation thresholds across different relations/edges to learn social message embeddings. To solve the long-tail problem in social event detection, a balanced sampling strategy guided Contrastive Learning mechanism is designed for incremental social message representation learning. Third, a new Deep Reinforcement Learning guided density-based spatial clustering model is designed to select the optimal minimum number of samples required to form a cluster and optimal minimum distance between two clusters in social event detection tasks. Finally, we implement incremental social message representation learning based on knowledge preservation on the graph neural network and achieve the transferring cross-lingual social event detection. We conduct extensive experiments to evaluate the FinEvent on Twitter streams, demonstrating a significant and consistent improvement in model quality with 14%–118%, 8%–170%, and 2%–21% increases in performance on offline, online, and cross-lingual social event detection tasks.</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="R10" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>[引用文]Peng et al. (2023) proposed FinEvent, a reinforced, incremental, and cross-lingual detection architecture. Its core innovation lies in a life-cycle learning mechanism that supports incremental adaptation: the system dynamically updates a multi-relational message graph, employs multi-agent reinforcement learning to continuously optimize aggregation strategies, and utilizes a DRL-optimized clustering module to self-adjust parameters for each data block—enabling the model to co-evolve with the social data stream.
 [翻译]
 Peng等人（2023）提出了FinEvent，一个强化的增量与跨语言检测架构。其核心创新在于一个支持增量适应的生命周期学习机制：系统动态更新多关系消息图，并采用多智能体强化学习持续优化聚合策略，同时通过DRL优化的聚类模块实现每个数据块的自调参，使模型能随社交数据流共同演化。[notes]根据消息间的多种语义关系构建异构消息网络网络-&gt;通过多智能体强化学习得到每个关系的保留阈值（多智能体强化指的是每个智能体负责一个关系），对于每个消息节点的每个关系图，通过保留阈值剪除掉对聚合作用低的邻居节点-&gt;先图内聚合，再图间聚合得到每个节点的特征向量-&gt;使用Triplet Loss（拉近同类消息、推远异类消息）和Global-Local Loss（保持图结构的全局一致性）两个损失函数进行GNN训练，得到不同事件区分能力-&gt;使用DRL-DBSCAN进行自适应聚类，得到事件分类输出-&gt;支持增量更新与跨语言迁移</t>
         </is>
       </c>
-      <c r="T9" s="3" t="b">
+      <c r="T10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U9" s="3" t="inlineStr"/>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr"/>
+      <c r="V10" s="3" t="inlineStr">
         <is>
           <t>2026-01-25 09:22:13</t>
         </is>
       </c>
-      <c r="W9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="inlineStr"/>
-      <c r="Y9" s="3" t="b">
+      <c r="W10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="inlineStr"/>
+      <c r="Y10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>10.1609/icwsm.v19i1.35837</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>Human and LLM Biases in Hate Speech Annotations: A Socio-Demographic Analysis of Annotators and Targets</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Tommaso Giorgi*,Lorenzo Cima*,Tiziano Fagni,Marco Avvenuti,Stefano Cresci</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>2025-06-07</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>Hate Speech Analysis</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>该领域需要大量人工标注，存在固有的主观性bias问题，需要系统性的研究</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>The authors introduce a novel methodological framework on the Measuring Hate Speech corpus that quantifies bias through "Intensity" and "Prevalence" metrics without relying on ground truth, uniquely isolating the interplay between specific annotator profiles and target groups.
 [翻译] 指标设计：提出了偏差强度（Intensity, 𝐼）和偏差普遍性（Prevalence, 𝑃），无需Ground Truth即可衡量相对偏差（将**其余所有标注者（Reference Group）**的共识作为基准）。&lt;br&gt;LLM对齐分析：评估了角色扮演LLM在“复现标注偏差”任务上的能力</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>Leveraging a large-scale dataset with rich demographic attributes, the methodology employs a comparative analysis using confusion matrices to measure relative labeling discrepancies between demographic groups, subsequently evaluating open-source LLMs via role-playing prompts to assess their alignment with human bias patterns.
 [翻译]通过**混淆矩阵**（行代表不具备该属性，列代表具备该属性）对比特定属性群体在评价特定属性受害者时的标签差异。计算偏差强度和普遍性\n使用**prompt**引导LLM进行相同任务以对比</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>Quantitative analysis reveals that while human annotators exhibit significant "in-group" hypersensitivity and demographic-specific labeling variations, persona-based LLMs demonstrate a limited correlation with these human biases, failing to accurately mirror the complex social prejudices inherent in human data.
 [翻译] 人类偏差：存在显著的“组内高敏度”（即倾向于高估针对自身群体的仇恨），受人口统计学交互影响严重（如年轻人倾向低估仇恨，老年人倾向高估）。&lt;br&gt;LLM表现：M表现出自身偏差，但未能有效复现人类的特定偏差（相关性极低），**欠缺对齐能力**（高估代表更敏感）</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>The study's limitations include data scarcity for specific minority groups which constrains statistical significance, and a reliance solely on prompting strategies without fine-tuning, which may restrict the models' capacity for deep behavioral mimicry.
 [翻译] 该研究的局限性包括特定少数群体的数据稀缺限制了统计显著性，以及仅仅依赖提示策略而没有进行微调，这可能限制了模型的深度行为模仿能力。</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35837</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>ICWSM</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：仇恨言论标注中的人类与大型语言模型偏见：标注者与目标群体的社会人口学分析**
 **说明：**
@@ -1658,160 +1792,39 @@
 - 采用“大型语言模型”这一通用学术</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>仇恨言论分析中的数据集标注如何受主观偏见影响，提示词引导的角色扮演LLM能否复刻这种偏见</t>
         </is>
       </c>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="P11" s="3" t="inlineStr">
         <is>
           <t>figures/HateAnaBias.png</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="Q11" s="3" t="inlineStr">
         <is>
           <t>The rise of online platforms exacerbated the spread of hate speech, demanding scalable and effective detection. However, the accuracy of hate speech detection systems heavily relies on human-labeled data, which is inherently susceptible to biases. While previous work has examined the issue, the interplay between the characteristics of the annotator and those of the target of the hate are still unexplored. We fill this gap by leveraging an extensive dataset with rich socio-demographic information of both annotators and targets, uncovering how human biases manifest in relation to the target's attributes. Our analysis surfaces the presence of widespread biases, which we quantitatively describe and characterize based on their intensity and prevalence, revealing marked differences. Furthermore, we compare human biases with those exhibited by persona-based LLMs. Our findings indicate that while persona-based LLMs do exhibit biases, these differ significantly from those of human annotators. Overall, our work offers new and nuanced results on human biases in hate speech annotations, as well as fresh insights into the design of AI-driven hate speech detection systems.</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R11" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>[引用句]Serving as a foundational critique within the transition from static classification to dynamic social simulation, Giorgi et al. (2025) demonstrate that although human perception of hate speech is fundamentally shaped by the interplay between annotator and target demographics, current persona-based LLMs fail to faithfully emulate these emergent sociological biases, highlighting a critical gap in the development of realistic AI agents.
 [翻译] 作为从静态分类向动态社会仿真过渡过程中的一项基础性批判研究，Giorgi等人（2025）证明，尽管人类对仇恨言论的感知从根本上受标注者与目标人口统计特征交互作用的影响，但当前的基于角色的LLM无法忠实地模拟这些涌现的社会学偏差，突显了构建逼真AI智能体方面的一个关键差距。</t>
         </is>
       </c>
-      <c r="T10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U10" s="3" t="inlineStr"/>
-      <c r="V10" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-25 09:22:13</t>
-        </is>
-      </c>
-      <c r="W10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3" t="inlineStr"/>
-      <c r="Y10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>10.1609/icwsm.v19i1.35804</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>News Source Credibility Assessment: A Reddit Case Study</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Arash Amini, Yigit Ege Bayiz, Ashwin Ram, Radu Marculescu, and Ufuk Topcu</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>2025-06-07</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Misinformation Analysis</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Driven by the proliferation of misinformation on social media, this work shifts focus from fact-checking individual news items to assessing the systemic credibility of news sources, addressing a critical gap in combating information pollution at its origin.
-[翻译]
-本研究受社交媒体虚假信息泛滥的驱动，将重点从核查单一新闻的真实性，转向评估新闻来源的系统性可信度，以应对从源头治理信息污染这一关键问题。</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>Its core innovation lies in constructing a weighted post-to-post network based on the semantic similarity of user comments. This network models latent socio-contextual linkages between submissions, which are then integrated via a Graph Convolutional Network (GCN) to enhance the binary classification of source credibility.
-[翻译]
-其核心创新在于基于用户评论的语义相似性构建了一个加权帖子间网络。该网络建模了帖子间潜在的社会语境关联，并通过图卷积网络（GCN）整合这些关联，以提升对新闻来源可信度的二分类性能。</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>The framework, CREDiBERT, first trains a bi-encoder on paired submissions about the same event to learn credibility-aware text embeddings. It then builds a novel graph where edge weights encode user reaction similarity via comments. Finally, a GCN fuses these textual and social signals for final classification.
-[翻译]
-该框架（CREDiBERT）首先在描述同一事件的成对帖子上训练一个双编码器，以学习具有可信度感知的文本嵌入。随后，它构建了一个新颖的图结构，其中边的权重通过评论编码了用户反应的相似性。最后，一个图卷积网络（GCN）融合了这些文本与社会信号以完成最终分类。</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>The model outperforms BERT-based baselines by 3% in F1-score for credibility assessment. Incorporating the user-interaction graph yields a further 8% gain, demonstrating the significant value of socially-grounded signals in evaluating information ecosystems.
-[翻译]
-该模型在可信度评估任务上的F1分数比基于BERT的基线模型高出3%。融入用户交互图后，性能进一步提升了8%，这证明了基于社交的感知信号在评估信息生态系统中的重要价值。</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>The method assesses source reputation rather than article veracity, leaving it blind to one-off falsehoods from otherwise credible outlets. Its performance is also tied to the bias present in the training data from specific online communities.
-[翻译]
-该方法评估的是来源声誉而非文章真实性，因此无法识别那些来自通常可信媒体的偶然性虚假信息。同时，其性能受限于来自特定网络社区的训练数据中存在的固有偏差。</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35804</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>ICWSM</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] 新闻来源可信度评估：一项基于Reddit的案例研究</t>
-        </is>
-      </c>
-      <c r="O11" s="3" t="inlineStr">
-        <is>
-          <t>通过帖子间的评论区相似性构建加权铁子网络，以求找到水军蛛丝马迹，进而确定新闻来源是否可信</t>
-        </is>
-      </c>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>figures/CREDiBERT.png</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>We present a transformer-based model for credibility assessment, CREDiBERT (CREDibility assessment using  Bi-directional Encoder Representations from Transformers), fine-tuned for Reddit submissions focusing on political discourse. We adopt a semi-supervised training approach for CREDiBERT, leveraging the community structure of Reddit. By encoding submission content using CREDiBERT and integrating it with a classification neural network, we improve the credibility assessment for Reddit submission by 3% in F1 score compared to existing methods. Additionally, we introduce a new version of the post-to-post network in Reddit that efficiently encodes user interactions to enhance the credibility assessment task by 8%  in the F1 score. We demonstrate CREDiBERT's applicability by evaluating the susceptibility of Reddit communities to different topics and assessing the credibility score of unseen sources.</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S11" s="3" t="inlineStr">
-        <is>
-          <t>[notes]关键设计在于通过评论区的评论相似性建模不同帖子间的潜在联系（加权帖子网络的边权重），在GCN中利用该联系来进行帖子的来源新闻的可信性二分类&lt;br&gt;[引用文]Amini et al. (2025) move beyond purely content-based pattern recognition, attempting instead to establish connections between posts and the credibility of news sources. Their CREDiBERT framework innovatively constructs a weighted post-to-post network from user comment similarities. This graph structure captures community-specific reaction patterns, which, when processed through a Graph Convolutional Network, significantly enhance the classification of news source credibility. This work underscores a paradigm shift: credibility assessment is beginning to focus on the patterns of information dissemination, rather than solely analyzing the specific content.
-[翻译]
-Amini等人（2025）的研究超越了单纯的基于内容的模式识别，转而尝试建立帖子与新闻来源可信度的联系。他们的CREDiBERT框架创新性地从用户评论相似性中构建了一个加权帖子间网络。该图结构捕获了社区的特定反应模式，这些模式通过图卷积网络处理后，显著增强了对新闻来源可信度的分类能力。这项工作强调了一个范式转变：可信度评估开始关注消息的传播模式，而不仅仅是分析具体内容。</t>
-        </is>
-      </c>
       <c r="T11" s="3" t="b">
         <v>1</v>
       </c>
       <c r="U11" s="3" t="inlineStr"/>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>2026-01-25 09:22:21</t>
+          <t>2026-01-25 09:22:13</t>
         </is>
       </c>
       <c r="W11" s="3" t="b">
@@ -1825,22 +1838,22 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>10.1145/3627673.3679519</t>
+          <t>10.1609/icwsm.v19i1.35804</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Let silence speak: Enhancing fake news detection with generated comments from large language models</t>
+          <t>News Source Credibility Assessment: A Reddit Case Study</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Qiong Nan,Qiang Sheng∗,Juan Cao,Beizhe Hu,Danding Wang,Jintao Li</t>
+          <t>Arash Amini, Yigit Ege Bayiz, Ashwin Ram, Radu Marculescu, and Ufuk Topcu</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2025-06-07</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1850,63 +1863,68 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>Comment-based fake news detection is hindered by the scarcity and skewed distribution of real user comments (e.g., in early stages or from “silent” users), leading to an incomplete and biased perception of public feedback.
-[翻译]基于评论的虚假新闻检测受限于真实用户评论的稀缺性与分布偏差（例如在早期传播阶段或来自“沉默”用户），导致对公众反馈的感知不完整且存在偏差。</t>
+          <t>Driven by the proliferation of misinformation on social media, this work shifts focus from fact-checking individual news items to assessing the systemic credibility of news sources, addressing a critical gap in combating information pollution at its origin.
+[翻译]
+本研究受社交媒体虚假信息泛滥的驱动，将重点从核查单一新闻的真实性，转向评估新闻来源的系统性可信度，以应对从源头治理信息污染这一关键问题。</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>使用LLM补充评论特征，解决该领域评论数据不足和不全面的问题</t>
+          <t>Its core innovation lies in constructing a weighted post-to-post network based on the semantic similarity of user comments. This network models latent socio-contextual linkages between submissions, which are then integrated via a Graph Convolutional Network (GCN) to enhance the binary classification of source credibility.
+[翻译]
+其核心创新在于基于用户评论的语义相似性构建了一个加权帖子间网络。该网络建模了帖子间潜在的社会语境关联，并通过图卷积网络（GCN）整合这些关联，以提升对新闻来源可信度的二分类性能。</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>The GenFEND framework: (1) generates comments by prompting an LLM with 30 predefined user profiles (gender/age/education); (2) analyzes them via group-wise semantic averaging and diversity measurement across demographic views; (3) aggregates intra-view and inter-view features adaptively for final classification.
-[翻译]GenFEND框架：(1) 通过为LLM提供30个预定义用户画像（性别/年龄/教育）来生成评论；(2) 通过分组语义平均和跨人口统计视图的多样性度量对其进行分析；(3) 自适应地聚合视图内和视图间的特征以进行最终分类。</t>
+          <t>The framework, CREDiBERT, first trains a bi-encoder on paired submissions about the same event to learn credibility-aware text embeddings. It then builds a novel graph where edge weights encode user reaction similarity via comments. Finally, a GCN fuses these textual and social signals for final classification.
+[翻译]
+该框架（CREDiBERT）首先在描述同一事件的成对帖子上训练一个双编码器，以学习具有可信度感知的文本嵌入。随后，它构建了一个新颖的图结构，其中边的权重通过评论编码了用户反应的相似性。最后，一个图卷积网络（GCN）融合了这些文本与社会信号以完成最终分类。</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>GenFEND consistently boosts both content-only and comment-based detectors across datasets. Notably, LLM-generated comments provide effective signals for early detection and can outperform actual comments, especially in identifying fake news.
-[翻译]GenFEND在多个数据集上持续提升了仅使用内容和使用评论的检测器性能。值得注意的是，LLM生成的评论为早期检测提供了有效信号，并且可以超越真实评论的效果，尤其在识别虚假新闻方面。</t>
+          <t>The model outperforms BERT-based baselines by 3% in F1-score for credibility assessment. Incorporating the user-interaction graph yields a further 8% gain, demonstrating the significant value of socially-grounded signals in evaluating information ecosystems.
+[翻译]
+该模型在可信度评估任务上的F1分数比基于BERT的基线模型高出3%。融入用户交互图后，性能进一步提升了8%，这证明了基于社交的感知信号在评估信息生态系统中的重要价值。</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>Limitations include dependence on LLM generation quality, limited considered user attributes, and higher computational cost. Future work may explore more nuanced user modeling, dynamic profile generation, and integration with real social graphs.
-[翻译]局限性包括对LLM生成质量的依赖、所考虑用户属性的有限性以及较高的计算成本。未来工作可探索更细致的用户建模、动态画像生成以及与真实社交图谱的结合。</t>
+          <t>The method assesses source reputation rather than article veracity, leaving it blind to one-off falsehoods from otherwise credible outlets. Its performance is also tied to the bias present in the training data from specific online communities.
+[翻译]
+该方法评估的是来源声誉而非文章真实性，因此无法识别那些来自通常可信媒体的偶然性虚假信息。同时，其性能受限于来自特定网络社区的训练数据中存在的固有偏差。</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>https://dl.acm.org/doi/10.1145/3627673.3679519</t>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35804</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr"/>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>CIKM '24</t>
+          <t>ICWSM</t>
         </is>
       </c>
       <c r="N12" s="3" t="inlineStr">
         <is>
-          <t>[AI generated] **中文标题：** 让沉默发声：利用大语言模型生成评论增强虚假新闻检测
-**说明：** 该翻译准确传达了原标题的核心思想，即通过生成“沉默用户”的评论来提升检测效果。“让沉默发声”这一表述生动且符合中文语境，整体风格专业、简洁，适用于学术论文标题。</t>
+          <t>[AI generated] 新闻来源可信度评估：一项基于Reddit的案例研究</t>
         </is>
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t>“让沉默的用户发声——用LLM生成多样评论，补充评论特征，提升虚假新闻检测的覆盖力和早期性能。”</t>
+          <t>通过帖子间的评论区相似性构建加权铁子网络，以求找到水军蛛丝马迹，进而确定新闻来源是否可信</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>figures/GenFEND.png</t>
+          <t>figures/CREDiBERT.png</t>
         </is>
       </c>
       <c r="Q12" s="3" t="inlineStr">
         <is>
-          <t>Fake news detection plays a crucial role in protecting social media users and maintaining a healthy news ecosystem. Among existing works, comment-based fake news detection methods are empirically shown as promising because comments could reflect users' opinions, stances, and emotions and deepen models' understanding of fake news. Unfortunately, due to exposure bias and users' different willingness to comment, it is not easy to obtain diverse comments in reality, especially for early detection scenarios. Without obtaining the comments from the "silent'' users, the perceived opinions may be incomplete, subsequently affecting news veracity judgment. In this paper, we explore the possibility of finding an alternative source of comments to guarantee the availability of diverse comments, especially those from silent users. Specifically, we propose to adopt large language models (LLMs) as a user simulator and comment generator, and design GenFEND, a generated feedback-enhanced detection framework, which generates comments by prompting LLMs with diverse user profiles and aggregating generated comments from multiple subpopulation groups. Experiments demonstrate the effectiveness of GenFEND and further analysis shows that the generated comments cover more diverse users and could even be more effective than actual comments.</t>
+          <t>We present a transformer-based model for credibility assessment, CREDiBERT (CREDibility assessment using  Bi-directional Encoder Representations from Transformers), fine-tuned for Reddit submissions focusing on political discourse. We adopt a semi-supervised training approach for CREDiBERT, leveraging the community structure of Reddit. By encoding submission content using CREDiBERT and integrating it with a classification neural network, we improve the credibility assessment for Reddit submission by 3% in F1 score compared to existing methods. Additionally, we introduce a new version of the post-to-post network in Reddit that efficiently encodes user interactions to enhance the credibility assessment task by 8%  in the F1 score. We demonstrate CREDiBERT's applicability by evaluating the susceptibility of Reddit communities to different topics and assessing the credibility score of unseen sources.</t>
         </is>
       </c>
       <c r="R12" s="3" t="inlineStr">
@@ -1916,9 +1934,9 @@
       </c>
       <c r="S12" s="3" t="inlineStr">
         <is>
-          <t>[引用文]Within the task of False Content Analysis, a key bottleneck is the scarcity of early-stage comments and the absence of opinions from silent users. The GenFEND framework (Nan et al., 2024) addresses this by using Large Language Models (LLMs) to supplement these missing comments. Instead of passively relying on sparse real comments, their approach actively generates a rich set of synthetic comments conditioned on diverse user profiles (e.g., gender, age, education level). This method effectively performs data augmentation in the social comment space, providing a stable and diverse informational supplement. This helps models establish a more complete perceptual foundation for veracity judgment and has proven to be highly effective for early fake news detection.
-[翻译]
-在虚假内容分析任务中，一个关键瓶颈是早期评论的稀缺性和沉默用户意见的缺失。GenFEND框架 (Nan et al., 2024) 通过使用大语言模型来补充这部分缺失的评论，从而解决了这一问题。该方法不再被动地依赖稀疏的真实评论，而是主动生成一组以多样化用户画像（如性别、年龄、教育程度）为条件的丰富合成评论。该方法有效地在社交评论空间进行了数据增强，提供了一个稳定且多样化的信息补充。这有助于模型为真实性判断建立更完整的感知基础，并被证明对早期虚假新闻检测非常有效。</t>
+          <t>[notes]关键设计在于通过评论区的评论相似性建模不同帖子间的潜在联系（加权帖子网络的边权重），在GCN中利用该联系来进行帖子的来源新闻的可信性二分类&lt;br&gt;[引用文]Amini et al. (2025) move beyond purely content-based pattern recognition, attempting instead to establish connections between posts and the credibility of news sources. Their CREDiBERT framework innovatively constructs a weighted post-to-post network from user comment similarities. This graph structure captures community-specific reaction patterns, which, when processed through a Graph Convolutional Network, significantly enhance the classification of news source credibility. This work underscores a paradigm shift: credibility assessment is beginning to focus on the patterns of information dissemination, rather than solely analyzing the specific content.
+[翻译]
+Amini等人（2025）的研究超越了单纯的基于内容的模式识别，转而尝试建立帖子与新闻来源可信度的联系。他们的CREDiBERT框架创新性地从用户评论相似性中构建了一个加权帖子间网络。该图结构捕获了社区的特定反应模式，这些模式通过图卷积网络处理后，显著增强了对新闻来源可信度的分类能力。这项工作强调了一个范式转变：可信度评估开始关注消息的传播模式，而不仅仅是分析具体内容。</t>
         </is>
       </c>
       <c r="T12" s="3" t="b">
@@ -1941,22 +1959,22 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>10.1609/aaai.v38i20.30252</t>
+          <t>10.1145/3627673.3679519</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Harnessing Network Effect for Fake News Mitigation: Selecting Debunkers via Self-Imitation Learning</t>
+          <t>Let silence speak: Enhancing fake news detection with generated comments from large language models</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Xiaofei Xu, Ke Deng, Michael Dann, Xiuzhen Zhang</t>
+          <t>Qiong Nan,Qiang Sheng∗,Juan Cao,Beizhe Hu,Danding Wang,Jintao Li</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>2024-03-24</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1966,73 +1984,63 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>Current approaches to multi-stage fake news mitigation often fail to address the episodic reward problem, where the effect of selecting an individual debunker cannot be measured until the campaign concludes. This sparse and delayed feedback limits the applicability of standard Reinforcement Learning (RL) in real-world social networks.
-[翻译]
-现有的多阶段假新闻治理方法往往未能解决片段式奖励问题，即选择单个辟谣者的效果只有在活动结束时才能衡量。这种稀疏且延迟的反馈限制了标准强化学习在现实社交网络中的适用性。</t>
+          <t>Comment-based fake news detection is hindered by the scarcity and skewed distribution of real user comments (e.g., in early stages or from “silent” users), leading to an incomplete and biased perception of public feedback.
+[翻译]基于评论的虚假新闻检测受限于真实用户评论的稀缺性与分布偏差（例如在早期传播阶段或来自“沉默”用户），导致对公众反馈的感知不完整且存在偏差。</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>The authors propose NAGASIL, introducing two key enhancements to Self-Imitation Learning: 1) Negative Sampling, which leverages low-reward historical episodes to explicitly penalize poor debunker selections, and 2) State Augmentation, which enriches the observed state by integrating historical state-action sequences from the same campaign to address partial observability.
-[翻译]
-作者提出了NAGASIL，为自模仿学习引入了两个关键增强：1) 负采样，利用历史低奖励片段显式惩罚不良的辟谣者选择；2) 状态增强，通过融合同一活动中的历史状态-动作序列来丰富观测状态，以应对部分可观测性问题。</t>
+          <t>使用LLM补充评论特征，解决该领域评论数据不足和不全面的问题</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>The debunker selection is formulated as a sequential decision-making problem under a budget constraint. A generative adversarial framework is employed, where a generator selects debunkers and a discriminator distinguishes between state-action pairs from high-reward historical episodes and those generated by the current policy. The generator is trained by integrating signals from the discriminator, an entropy regularizer for exploration, and a novel regularizer derived from a negative sampling model trained on low-reward episodes. This process yields an optimal generator capable of outputting an effective debunker selection policy.
-[翻译]
-辟谣者选择被建模为预算约束下的序列决策问题。采用生成对抗框架，其中生成器选择辟谣者，判别器区分来自高奖励历史片段的状态-动作对与当前策略生成的对。生成器的训练整合了来自判别器的信号、用于探索的熵正则项，以及一个从低奖励片段训练得到的负采样模型所衍生的新正则项。该过程最终产生一个能输出有效辟谣者选择策略的最优生成器。</t>
+          <t>The GenFEND framework: (1) generates comments by prompting an LLM with 30 predefined user profiles (gender/age/education); (2) analyzes them via group-wise semantic averaging and diversity measurement across demographic views; (3) aggregates intra-view and inter-view features adaptively for final classification.
+[翻译]GenFEND框架：(1) 通过为LLM提供30个预定义用户画像（性别/年龄/教育）来生成评论；(2) 通过分组语义平均和跨人口统计视图的多样性度量对其进行分析；(3) 自适应地聚合视图内和视图间的特征以进行最终分类。</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>Experiments conducted on both real-world (Facebook) and synthetic (Twitter) networks demonstrate that NAGASIL outperforms state-of-the-art fake news mitigation baselines and standard self-imitation learning methods across various budgets, stage lengths, and network densities.
-[翻译]
-在真实世界（Facebook）和合成（Twitter）网络上的实验表明，NAGASIL在各种预算、阶段长度和网络密度设置下，均优于先进的假新闻治理基线方法和标准自模仿学习方法。</t>
+          <t>GenFEND consistently boosts both content-only and comment-based detectors across datasets. Notably, LLM-generated comments provide effective signals for early detection and can outperform actual comments, especially in identifying fake news.
+[翻译]GenFEND在多个数据集上持续提升了仅使用内容和使用评论的检测器性能。值得注意的是，LLM生成的评论为早期检测提供了有效信号，并且可以超越真实评论的效果，尤其在识别虚假新闻方面。</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t>The proposed method operates under the assumption that the veracity of news is pre-determined, necessitating integration with an external fake news detection system. Future research could explore adaptive propagation models and the dynamic nature of user behavior.
-[翻译]
-所提方法基于新闻真伪已知的假设运行，因此需要与外部假新闻检测系统结合。未来研究可探索自适应的传播模型和用户行为的动态特性。</t>
+          <t>Limitations include dependence on LLM generation quality, limited considered user attributes, and higher computational cost. Future work may explore more nuanced user modeling, dynamic profile generation, and integration with real social graphs.
+[翻译]局限性包括对LLM生成质量的依赖、所考虑用户属性的有限性以及较高的计算成本。未来工作可探索更细致的用户建模、动态画像生成以及与真实社交图谱的结合。</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>https://ojs.aaai.org/index.php/AAAI/article/view/30252</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
-        <is>
-          <t>https://github.com/xxfwin/NAGASIL</t>
-        </is>
-      </c>
+          <t>https://dl.acm.org/doi/10.1145/3627673.3679519</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr"/>
       <c r="M13" s="3" t="inlineStr">
         <is>
-          <t>AAAI</t>
+          <t>CIKM '24</t>
         </is>
       </c>
       <c r="N13" s="3" t="inlineStr">
         <is>
-          <t>[AI generated] 中文标题：**利用网络效应抑制虚假新闻：基于自模仿学习的辟谣者选择策略**
-（说明：该翻译在保持学术严谨性的同时，通过“抑制虚假新闻”准确传达“mitigation”的主动干预含义；“辟谣者选择策略”清晰体现了“selecting debunkers”的研究核心；副标题结构符合中文论文标题常见格式。）</t>
+          <t>[AI generated] **中文标题：** 让沉默发声：利用大语言模型生成评论增强虚假新闻检测
+**说明：** 该翻译准确传达了原标题的核心思想，即通过生成“沉默用户”的评论来提升检测效果。“让沉默发声”这一表述生动且符合中文语境，整体风格专业、简洁，适用于学术论文标题。</t>
         </is>
       </c>
       <c r="O13" s="3" t="inlineStr">
         <is>
-          <t>一个辟谣者选择策略（MDP风格）的生成器</t>
+          <t>“让沉默的用户发声——用LLM生成多样评论，补充评论特征，提升虚假新闻检测的覆盖力和早期性能。”</t>
         </is>
       </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t>figures/NAGASIL.png</t>
+          <t>figures/GenFEND.png</t>
         </is>
       </c>
       <c r="Q13" s="3" t="inlineStr">
         <is>
-          <t>This study aims to minimize the influence of fake news on social networks by deploying debunkers to propagate true news. This is framed as a reinforcement learning problem, where, at each stage, one user is selected to propagate true news. A challenging issue is episodic reward where the "net" effect of selecting individual debunkers cannot be discerned from the interleaving information propagation on social networks, and only the collective effect from mitigation efforts can be observed. Existing Self-Imitation Learning (SIL) methods have shown promise in learning from episodic rewards, but are ill-suited to the real-world application of fake news mitigation because of their poor sample efficiency. To learn a more effective debunker selection policy for fake news mitigation, this study proposes NAGASIL - Negative sampling and state Augmented Generative Adversarial Self-Imitation Learning, which consists of two improvements geared towards fake news mitigation: learning from negative samples, and an augmented state representation to capture the "real" environment state by integrating the current observed state with the previous state-action pairs from the same campaign. Experiments on two social networks show that NAGASIL yields superior performance to standard GASIL and state-of-the-art fake news mitigation models.</t>
+          <t>Fake news detection plays a crucial role in protecting social media users and maintaining a healthy news ecosystem. Among existing works, comment-based fake news detection methods are empirically shown as promising because comments could reflect users' opinions, stances, and emotions and deepen models' understanding of fake news. Unfortunately, due to exposure bias and users' different willingness to comment, it is not easy to obtain diverse comments in reality, especially for early detection scenarios. Without obtaining the comments from the "silent'' users, the perceived opinions may be incomplete, subsequently affecting news veracity judgment. In this paper, we explore the possibility of finding an alternative source of comments to guarantee the availability of diverse comments, especially those from silent users. Specifically, we propose to adopt large language models (LLMs) as a user simulator and comment generator, and design GenFEND, a generated feedback-enhanced detection framework, which generates comments by prompting LLMs with diverse user profiles and aggregating generated comments from multiple subpopulation groups. Experiments demonstrate the effectiveness of GenFEND and further analysis shows that the generated comments cover more diverse users and could even be more effective than actual comments.</t>
         </is>
       </c>
       <c r="R13" s="3" t="inlineStr">
@@ -2042,10 +2050,9 @@
       </c>
       <c r="S13" s="3" t="inlineStr">
         <is>
-          <t>[引用文]The work by Xu et al. (2024) marks a pivotal transition from merely recognizing patterns of disinformation to actively intervening to curtail its spread. By harnessing network effects within a reinforcement learning framework enhanced by self-imitative adversarial learning, their NAGASIL model transcends static pattern recognition. It implements a dynamic, goal-oriented policy learning process that provides actionable guidance for debunker selection strategies.
-[翻译]
-Xu等人（2024）的研究标志着一个关键的转变：从仅仅识别虚假信息模式，转向主动干预以遏制其传播。通过在一个由自模仿对抗学习增强的强化学习框架内利用网络效应，他们的NAGASIL模型超越了静态模式识别。它实现了一个动态的、目标导向的策略学习过程，为辟谣者选择策略提供了可行的指导。&lt;br&gt;[notes]1.这是一个对抗性学习框架，判别器希望好序列的置信度高，其他序列的置信度低，通过损失函数训练优化。生成器依据目标函数进行训练优化，目标函数包含三部分：判别器传来的对抗信号（置信度）、鼓励多样性的熵正则、负采样正则项（来自坏序列的距离（训练另一个模型以输出该值））。好经验和坏经验每轮通过奖励值V(τ) = -log(感染用户比例)获得。
-2.每**轮**中每个**阶段**选择一个用户恢复并作为辟谣者，预算减去其成本，进行w个**时间步**的辟谣。每个阶段的预算用完后，进行每轮一次的梯度更新和好坏序列评选，然后进入下一轮</t>
+          <t>[引用文]Within the task of False Content Analysis, a key bottleneck is the scarcity of early-stage comments and the absence of opinions from silent users. The GenFEND framework (Nan et al., 2024) addresses this by using Large Language Models (LLMs) to supplement these missing comments. Instead of passively relying on sparse real comments, their approach actively generates a rich set of synthetic comments conditioned on diverse user profiles (e.g., gender, age, education level). This method effectively performs data augmentation in the social comment space, providing a stable and diverse informational supplement. This helps models establish a more complete perceptual foundation for veracity judgment and has proven to be highly effective for early fake news detection.
+[翻译]
+在虚假内容分析任务中，一个关键瓶颈是早期评论的稀缺性和沉默用户意见的缺失。GenFEND框架 (Nan et al., 2024) 通过使用大语言模型来补充这部分缺失的评论，从而解决了这一问题。该方法不再被动地依赖稀疏的真实评论，而是主动生成一组以多样化用户画像（如性别、年龄、教育程度）为条件的丰富合成评论。该方法有效地在社交评论空间进行了数据增强，提供了一个稳定且多样化的信息补充。这有助于模型为真实性判断建立更完整的感知基础，并被证明对早期虚假新闻检测非常有效。</t>
         </is>
       </c>
       <c r="T13" s="3" t="b">
@@ -2054,7 +2061,7 @@
       <c r="U13" s="3" t="inlineStr"/>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>2026-01-25 09:22:13</t>
+          <t>2026-01-25 09:22:21</t>
         </is>
       </c>
       <c r="W13" s="3" t="b">
@@ -2068,74 +2075,201 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
+          <t>10.1609/aaai.v38i20.30252</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Harnessing Network Effect for Fake News Mitigation: Selecting Debunkers via Self-Imitation Learning</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Xiaofei Xu, Ke Deng, Michael Dann, Xiuzhen Zhang</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Misinformation Analysis</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Current approaches to multi-stage fake news mitigation often fail to address the episodic reward problem, where the effect of selecting an individual debunker cannot be measured until the campaign concludes. This sparse and delayed feedback limits the applicability of standard Reinforcement Learning (RL) in real-world social networks.
+[翻译]
+现有的多阶段假新闻治理方法往往未能解决片段式奖励问题，即选择单个辟谣者的效果只有在活动结束时才能衡量。这种稀疏且延迟的反馈限制了标准强化学习在现实社交网络中的适用性。</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>The authors propose NAGASIL, introducing two key enhancements to Self-Imitation Learning: 1) Negative Sampling, which leverages low-reward historical episodes to explicitly penalize poor debunker selections, and 2) State Augmentation, which enriches the observed state by integrating historical state-action sequences from the same campaign to address partial observability.
+[翻译]
+作者提出了NAGASIL，为自模仿学习引入了两个关键增强：1) 负采样，利用历史低奖励片段显式惩罚不良的辟谣者选择；2) 状态增强，通过融合同一活动中的历史状态-动作序列来丰富观测状态，以应对部分可观测性问题。</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>The debunker selection is formulated as a sequential decision-making problem under a budget constraint. A generative adversarial framework is employed, where a generator selects debunkers and a discriminator distinguishes between state-action pairs from high-reward historical episodes and those generated by the current policy. The generator is trained by integrating signals from the discriminator, an entropy regularizer for exploration, and a novel regularizer derived from a negative sampling model trained on low-reward episodes. This process yields an optimal generator capable of outputting an effective debunker selection policy.
+[翻译]
+辟谣者选择被建模为预算约束下的序列决策问题。采用生成对抗框架，其中生成器选择辟谣者，判别器区分来自高奖励历史片段的状态-动作对与当前策略生成的对。生成器的训练整合了来自判别器的信号、用于探索的熵正则项，以及一个从低奖励片段训练得到的负采样模型所衍生的新正则项。该过程最终产生一个能输出有效辟谣者选择策略的最优生成器。</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>Experiments conducted on both real-world (Facebook) and synthetic (Twitter) networks demonstrate that NAGASIL outperforms state-of-the-art fake news mitigation baselines and standard self-imitation learning methods across various budgets, stage lengths, and network densities.
+[翻译]
+在真实世界（Facebook）和合成（Twitter）网络上的实验表明，NAGASIL在各种预算、阶段长度和网络密度设置下，均优于先进的假新闻治理基线方法和标准自模仿学习方法。</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>The proposed method operates under the assumption that the veracity of news is pre-determined, necessitating integration with an external fake news detection system. Future research could explore adaptive propagation models and the dynamic nature of user behavior.
+[翻译]
+所提方法基于新闻真伪已知的假设运行，因此需要与外部假新闻检测系统结合。未来研究可探索自适应的传播模型和用户行为的动态特性。</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/AAAI/article/view/30252</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/xxfwin/NAGASIL</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>AAAI</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] 中文标题：**利用网络效应抑制虚假新闻：基于自模仿学习的辟谣者选择策略**
+（说明：该翻译在保持学术严谨性的同时，通过“抑制虚假新闻”准确传达“mitigation”的主动干预含义；“辟谣者选择策略”清晰体现了“selecting debunkers”的研究核心；副标题结构符合中文论文标题常见格式。）</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>一个辟谣者选择策略（MDP风格）的生成器</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>figures/NAGASIL.png</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="inlineStr">
+        <is>
+          <t>This study aims to minimize the influence of fake news on social networks by deploying debunkers to propagate true news. This is framed as a reinforcement learning problem, where, at each stage, one user is selected to propagate true news. A challenging issue is episodic reward where the "net" effect of selecting individual debunkers cannot be discerned from the interleaving information propagation on social networks, and only the collective effect from mitigation efforts can be observed. Existing Self-Imitation Learning (SIL) methods have shown promise in learning from episodic rewards, but are ill-suited to the real-world application of fake news mitigation because of their poor sample efficiency. To learn a more effective debunker selection policy for fake news mitigation, this study proposes NAGASIL - Negative sampling and state Augmented Generative Adversarial Self-Imitation Learning, which consists of two improvements geared towards fake news mitigation: learning from negative samples, and an augmented state representation to capture the "real" environment state by integrating the current observed state with the previous state-action pairs from the same campaign. Experiments on two social networks show that NAGASIL yields superior performance to standard GASIL and state-of-the-art fake news mitigation models.</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
+          <t>[引用文]The work by Xu et al. (2024) marks a pivotal transition from merely recognizing patterns of disinformation to actively intervening to curtail its spread. By harnessing network effects within a reinforcement learning framework enhanced by self-imitative adversarial learning, their NAGASIL model transcends static pattern recognition. It implements a dynamic, goal-oriented policy learning process that provides actionable guidance for debunker selection strategies.
+[翻译]
+Xu等人（2024）的研究标志着一个关键的转变：从仅仅识别虚假信息模式，转向主动干预以遏制其传播。通过在一个由自模仿对抗学习增强的强化学习框架内利用网络效应，他们的NAGASIL模型超越了静态模式识别。它实现了一个动态的、目标导向的策略学习过程，为辟谣者选择策略提供了可行的指导。&lt;br&gt;[notes]1.这是一个对抗性学习框架，判别器希望好序列的置信度高，其他序列的置信度低，通过损失函数训练优化。生成器依据目标函数进行训练优化，目标函数包含三部分：判别器传来的对抗信号（置信度）、鼓励多样性的熵正则、负采样正则项（来自坏序列的距离（训练另一个模型以输出该值））。好经验和坏经验每轮通过奖励值V(τ) = -log(感染用户比例)获得。
+2.每**轮**中每个**阶段**选择一个用户恢复并作为辟谣者，预算减去其成本，进行w个**时间步**的辟谣。每个阶段的预算用完后，进行每轮一次的梯度更新和好坏序列评选，然后进入下一轮</t>
+        </is>
+      </c>
+      <c r="T14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-25 09:22:13</t>
+        </is>
+      </c>
+      <c r="W14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="inlineStr"/>
+      <c r="Y14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
           <t>10.1609/icwsm.v19i1.35801</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>Extracting affect aggregates from longitudinal social media data with temporal adapters for large language models</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Georg Ahnert, Max Pellert, David Garcia, Markus Strohmaier</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>2025-06-07</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>Sentiment Analysis</t>
         </is>
       </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="F15" s="3" t="inlineStr">
         <is>
           <t>Addresses the temporal misalignment inherent in prompt-based in silico surveys and the scalability bottlenecks of traditional affective computing, which heavily relies on resource-intensive labeled datasets or static dictionaries.
 [翻译] 解决了基于提示词的in silico（计算机模拟）调查中固有的时间错位问题，以及传统情感计算严重依赖资源密集型标注数据集或静态词典的可扩展性瓶颈</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
         <is>
           <t>利用LoRA作为模块化学习元件的“时间适配器”，以捕捉特定时期独有的时间与语言特征。通过将这些轻量级适配器与冻结基座模型的固有推理能力产生协同作用，该框架实现了高效且可扩展的纵向情感预测。</t>
         </is>
       </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>Employs a two-stage framework: first, fine-tuning weekly LoRA adapters on longitudinal Twitter timelines via a self-supervised causal language modeling objective; second, probing the adapted models with standard psychometric questionnaires to extract aggregate affect via token probability distributions.
 [翻译] 采用双阶段框架：首先，通过自监督的因果语言建模目标在纵向Twitter时间线上微调每周的LoRA适配器；其次，使用标准心理测量问卷探测适配后的模型，通过Token概率分布提取聚合情感&lt;br&gt;[通俗核心]在每周分别进行LoRA自监督微调，让模型的预测尽可能和原数据一样。使用专业问卷作为prompt，模拟模型回答问卷，最终得到一个情感概率随时间的分布，与公众真实分布对比</t>
         </is>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I15" s="3" t="inlineStr">
         <is>
           <t>Demonstrates strong, significant correlations with representative polling data (YouGov) during the COVID-19 pandemic, achieving performance comparable to supervised baselines (e.g., TweetNLP) while offering superior flexibility in querying diverse and complex collective attitudes.
 [翻译] 展示了在COVID-19大流行期间与代表性民调数据（YouGov）的强显著相关性，实现了与监督基线模型（如TweetNLP）相当的性能，同时在查询多样化且复杂的集体态度方面提供了更优越的灵活性。</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J15" s="3" t="inlineStr">
         <is>
           <t>Primarily effective for longitudinal trend analysis rather than absolute cross-sectional calibration, and the representativeness of the emergent sentiment is constrained by the demographic biases inherent in the social media training corpora.
 [翻译] 主要在纵向趋势分析而非绝对横截面校准方面有效，且涌现出的情感代表性受限于社交媒体训练语料库中固有的人口统计学偏差</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K15" s="3" t="inlineStr">
         <is>
           <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35801</t>
         </is>
       </c>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>https://github.com/dess-mannheim/temporal-adapters</t>
         </is>
       </c>
-      <c r="M14" s="3" t="inlineStr">
+      <c r="M15" s="3" t="inlineStr">
         <is>
           <t>ICWSM</t>
         </is>
       </c>
-      <c r="N14" s="3" t="inlineStr">
+      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 利用面向大语言模型的时间适配器从纵向社交媒体数据中提取情感聚合指标
 **说明：** 此翻译力求准确、专业，符合学术论文标题的规范。
@@ -2143,27 +2277,27 @@
 *   **from longitudinal social media data**</t>
         </is>
       </c>
-      <c r="O14" s="3" t="inlineStr">
+      <c r="O15" s="3" t="inlineStr">
         <is>
           <t>对于每周，训练一个LoRA作为时间适配器，使模型获得了根据时间段预测情感的能力</t>
         </is>
       </c>
-      <c r="P14" s="3" t="inlineStr">
+      <c r="P15" s="3" t="inlineStr">
         <is>
           <t>figures/Temporal Adapters.png;figures/Temporal Adapters2.png</t>
         </is>
       </c>
-      <c r="Q14" s="3" t="inlineStr">
+      <c r="Q15" s="3" t="inlineStr">
         <is>
           <t>This paper proposes temporally aligned Large Language Models (LLMs) as a tool for longitudinal analysis of social media data. We fine-tune Temporal Adapters for Llama 3 8B on full timelines from a panel of British Twitter users and extract longitudinal aggregates of emotions and attitudes with established questionnaires. We focus our analysis on the beginning of the COVID-19 pandemic that had a strong impact on public opinion and collective emotions. We validate our estimates against representative British survey data and find strong positive and significant correlations for several collective emotions. The estimates obtained are robust across multiple training seeds and prompt formulations, and in line with collective emotions extracted using a traditional classification model trained on labeled data. We demonstrate the flexibility of our method on questions of public opinion for which no pre-trained classifier is available. Our work extends the analysis of affect in LLMs to a longitudinal setting through Temporal Adapters. It enables flexible and new approaches to the longitudinal analysis of social media data.</t>
         </is>
       </c>
-      <c r="R14" s="3" t="inlineStr">
+      <c r="R15" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>【集体情感分析】通过LoRA自监督学到的是该特定时间段内公众的语言风格和关注点，结合基础模型的固有能力获得了预测特定时间内公众情感的能力，很神奇，这是一个通用方法
 [引用文]Moving beyond traditional supervised classifiers, Ahnert et al. (2025) demonstrate a shift toward the social simulation paradigm by proposing Temporal Adapters. Instead of training models to explicitly recognize emotion patterns, they utilize self-supervised learning to train lightweight LoRA modules as learning components, aligning the frozen LLM with specific temporal and linguistic contexts derived from longitudinal social media data. This equips the model with the capability to predict public sentiment within specific timeframes. Their approach validates that scalable and accurate tracking of public opinion dynamic
@@ -2171,131 +2305,13 @@
 超越了传统的监督分类器，Ahnert等人 (2025) 通过提出 “时间适配器” 展示了向社会仿真范式的转变。他们不再训练模型去显式地识别情感模式，而是通过自监督学习训练轻量级的LoRA模块作为学习元件，将冻结的大语言模型与源自纵向社交媒体数据的特定时间及语言语境相对齐。使模型获得了预测特定时间内公众情感的能力。他们的方法证实，通过时间对齐而非标签监督，即可实现对民意动态的可扩展且准确的追踪。</t>
         </is>
       </c>
-      <c r="T14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U14" s="3" t="inlineStr"/>
-      <c r="V14" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-25 09:22:21</t>
-        </is>
-      </c>
-      <c r="W14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="inlineStr"/>
-      <c r="Y14" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>10.1145/3581783.3612517</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Multi-label emotion analysis in conversation via multimodal knowledge distillation</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Sidharth Anand∗,Naresh Kumar Devulapally∗,Sreyasee Das Bhattacharjee,Junsong Yuan</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>2023-10-27</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Sentiment Analysis</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>Addresses the limitations of single-dominant emotion assumptions by tackling the challenge of multi-label emotion co-occurrence and generalization across diverse socio-demographic groups, particularly varying age populations.
-[翻译] 针对现有多模态方法主要关注单一主导情感的局限性，该研究致力于解决情感标签共现的识别难题，并提升模型在不同社会人口统计学群体（特别是不同年龄段人群）中的泛化能力。</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>将多模态知识蒸馏与标签一致性校准损失（LCC）相结合，减轻了模型对简单标签的过拟合（保证置信度相近）；构建了一个利用蒸馏方法的整体框架，其目的是为了融合各模态能力</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>Employing a Multimodal Transformer Network where mode-specific peer branches (visual, audio, textual) collaboratively distill learned probabilistic uncertainty into a fusion branch via cross-network attention and noise contrastive estimation.……
-[翻译] 将三个特定模态的对等分支通过跨网络注意力和噪声对比估计，协同地将其学习到的概率蒸馏到融合分支中，构建了一个拥有四个分支的整体预测模型。[值得关注]视频使用Tubelet embedding技术，将视频切分为时空小块（Spatial-Temporal Tubes），保留时空信息</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>Demonstrates state-of-the-art performance on MOSEI, EmoReact, and ElderReact datasets, achieving an approximate 17% improvement in weighted F1-score during cross-dataset evaluations, thereby validating robustness in age-diverse scenarios.
-[翻译] 在MOSEI、EmoReact和ElderReact数据集上最先进的性能，跨数据集评估有约17%的加权F1提升，在跨年龄场景下具有鲁棒性。</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>The approach necessitates the reduction of complex emotion categories to basic subsets for cross-dataset consistency and entails significant computational overhead due to the spatiotemporal tubelet embedding mechanism.
-[翻译] 为了保持跨数据集一致性，要将复杂情感类归约为基础子集，由于采用时空Tubelet嵌入机制，导致了显著的计算开销</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>https://dl.acm.org/doi/10.1145/3581783.3612517</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>https://github.com/neuralnaresh/multimodal-emotion-recognition</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>Proceedings of the 31st ACM International Conference on Multimedia</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] **中文标题：** 基于多模态知识蒸馏的对话多标签情感分析话多标签情感分析</t>
-        </is>
-      </c>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>三个专家分别处理一个模态，训练的同时将能力蒸馏给融合分支，最终形成一个整体模型，教师（分支专家）与学生（融合专家）一同处理多模态内容，得到情感分类</t>
-        </is>
-      </c>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>figures/SeMuL-PCD.png</t>
-        </is>
-      </c>
-      <c r="Q15" s="3" t="inlineStr">
-        <is>
-          <t>Evaluating speaker emotion in conversations is crucial for various applications requiring human-computer interaction. However, co-occurrences of multiple emotional states (e.g. 'anger' and 'frustration' may occur together or one may influence the occurrence of the other) and their dynamic evolution may vary dramatically due to the speaker's internal (e.g., influence of their personalized socio-cultural-educational and demographic backgrounds) and external contexts. Thus far, the previous focus has been on evaluating only the dominant emotion observed in a speaker at a given time, which is susceptible to producing misleading classification decisions for difficult multi-labels during testing. In this work, we present Self-supervised Multi- Label Peer Collaborative Distillation (SeMuL-PCD) Learning via an efficient Multimodal Transformer Network, in which complementary feedback from multiple mode-specific peer networks (e.g.transcript, audio, visual) are distilled into a single mode-ensembled fusion network for estimating multiple emotions simultaneously. The proposed Multimodal Distillation Loss calibrates the fusion network by minimizing the Kullback-Leibler divergence with the peer networks. Additionally, each peer network is conditioned using a self-supervised contrastive objective to improve the generalization across diverse socio-demographic speaker backgrounds. By enabling peer collaborative learning that allows each network to independently learn their mode-specific discriminative patterns,SeMUL-PCD is effective across different conversation environments. In particular, the model not only outperforms the current state-of-the-art models on several large-scale public datasets (e.g., MOSEI, EmoReact and ElderReact), but with around 17% improved weighted F1-score in the cross-dataset experimental settings. The model also demonstrates an impressive generalization ability across age and demography-diverse populations.</t>
-        </is>
-      </c>
-      <c r="R15" s="3" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S15" s="3" t="inlineStr">
-        <is>
-          <t>【面向结果模型训练】[引用句]"Transscending the traditional paradigm of identifying single dominant emotions, Anand et al. [2023] proposed SeMuL-PCD to enhance the granularity of affective perception in diverse social contexts; by leveraging a collaborative distillation mechanism that calibrates mode-specific feedback, their model robustly disentangles multi-label emotional co-occurrences across varying demographic backgrounds (e.g., children and the elderly), thereby providing a more nuanced foundation for socially adaptive agents."
-[翻译] “为了超越识别单一主导情感的传统范式，Anand等人[2023]提出了SeMuL-PCD，旨在增强不同社会语境下情感感知的粒度；通过利用一种校准模态特定反馈的协作蒸馏机制，该模型能够在不同的人口统计背景（如儿童和老人）下鲁棒地解耦多标签情感的共现关系，从而为具备社会适应能力的智能体提供了更精细的情感理解基础。”</t>
-        </is>
-      </c>
       <c r="T15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="U15" s="3" t="inlineStr"/>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>2026-01-25 09:17:23</t>
+          <t>2026-01-25 09:22:21</t>
         </is>
       </c>
       <c r="W15" s="3" t="b">
@@ -2309,70 +2325,188 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
+          <t>10.1145/3581783.3612517</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Multi-label emotion analysis in conversation via multimodal knowledge distillation</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Sidharth Anand∗,Naresh Kumar Devulapally∗,Sreyasee Das Bhattacharjee,Junsong Yuan</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Sentiment Analysis</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Addresses the limitations of single-dominant emotion assumptions by tackling the challenge of multi-label emotion co-occurrence and generalization across diverse socio-demographic groups, particularly varying age populations.
+[翻译] 针对现有多模态方法主要关注单一主导情感的局限性，该研究致力于解决情感标签共现的识别难题，并提升模型在不同社会人口统计学群体（特别是不同年龄段人群）中的泛化能力。</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>将多模态知识蒸馏与标签一致性校准损失（LCC）相结合，减轻了模型对简单标签的过拟合（保证置信度相近）；构建了一个利用蒸馏方法的整体框架，其目的是为了融合各模态能力</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>Employing a Multimodal Transformer Network where mode-specific peer branches (visual, audio, textual) collaboratively distill learned probabilistic uncertainty into a fusion branch via cross-network attention and noise contrastive estimation.……
+[翻译] 将三个特定模态的对等分支通过跨网络注意力和噪声对比估计，协同地将其学习到的概率蒸馏到融合分支中，构建了一个拥有四个分支的整体预测模型。[值得关注]视频使用Tubelet embedding技术，将视频切分为时空小块（Spatial-Temporal Tubes），保留时空信息</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>Demonstrates state-of-the-art performance on MOSEI, EmoReact, and ElderReact datasets, achieving an approximate 17% improvement in weighted F1-score during cross-dataset evaluations, thereby validating robustness in age-diverse scenarios.
+[翻译] 在MOSEI、EmoReact和ElderReact数据集上最先进的性能，跨数据集评估有约17%的加权F1提升，在跨年龄场景下具有鲁棒性。</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>The approach necessitates the reduction of complex emotion categories to basic subsets for cross-dataset consistency and entails significant computational overhead due to the spatiotemporal tubelet embedding mechanism.
+[翻译] 为了保持跨数据集一致性，要将复杂情感类归约为基础子集，由于采用时空Tubelet嵌入机制，导致了显著的计算开销</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>https://dl.acm.org/doi/10.1145/3581783.3612517</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/neuralnaresh/multimodal-emotion-recognition</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>Proceedings of the 31st ACM International Conference on Multimedia</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] **中文标题：** 基于多模态知识蒸馏的对话多标签情感分析话多标签情感分析</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
+          <t>三个专家分别处理一个模态，训练的同时将能力蒸馏给融合分支，最终形成一个整体模型，教师（分支专家）与学生（融合专家）一同处理多模态内容，得到情感分类</t>
+        </is>
+      </c>
+      <c r="P16" s="3" t="inlineStr">
+        <is>
+          <t>figures/SeMuL-PCD.png</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>Evaluating speaker emotion in conversations is crucial for various applications requiring human-computer interaction. However, co-occurrences of multiple emotional states (e.g. 'anger' and 'frustration' may occur together or one may influence the occurrence of the other) and their dynamic evolution may vary dramatically due to the speaker's internal (e.g., influence of their personalized socio-cultural-educational and demographic backgrounds) and external contexts. Thus far, the previous focus has been on evaluating only the dominant emotion observed in a speaker at a given time, which is susceptible to producing misleading classification decisions for difficult multi-labels during testing. In this work, we present Self-supervised Multi- Label Peer Collaborative Distillation (SeMuL-PCD) Learning via an efficient Multimodal Transformer Network, in which complementary feedback from multiple mode-specific peer networks (e.g.transcript, audio, visual) are distilled into a single mode-ensembled fusion network for estimating multiple emotions simultaneously. The proposed Multimodal Distillation Loss calibrates the fusion network by minimizing the Kullback-Leibler divergence with the peer networks. Additionally, each peer network is conditioned using a self-supervised contrastive objective to improve the generalization across diverse socio-demographic speaker backgrounds. By enabling peer collaborative learning that allows each network to independently learn their mode-specific discriminative patterns,SeMUL-PCD is effective across different conversation environments. In particular, the model not only outperforms the current state-of-the-art models on several large-scale public datasets (e.g., MOSEI, EmoReact and ElderReact), but with around 17% improved weighted F1-score in the cross-dataset experimental settings. The model also demonstrates an impressive generalization ability across age and demography-diverse populations.</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S16" s="3" t="inlineStr">
+        <is>
+          <t>【面向结果模型训练】[引用句]"Transscending the traditional paradigm of identifying single dominant emotions, Anand et al. [2023] proposed SeMuL-PCD to enhance the granularity of affective perception in diverse social contexts; by leveraging a collaborative distillation mechanism that calibrates mode-specific feedback, their model robustly disentangles multi-label emotional co-occurrences across varying demographic backgrounds (e.g., children and the elderly), thereby providing a more nuanced foundation for socially adaptive agents."
+[翻译] “为了超越识别单一主导情感的传统范式，Anand等人[2023]提出了SeMuL-PCD，旨在增强不同社会语境下情感感知的粒度；通过利用一种校准模态特定反馈的协作蒸馏机制，该模型能够在不同的人口统计背景（如儿童和老人）下鲁棒地解耦多标签情感的共现关系，从而为具备社会适应能力的智能体提供了更精细的情感理解基础。”</t>
+        </is>
+      </c>
+      <c r="T16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3" t="inlineStr"/>
+      <c r="V16" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-25 09:17:23</t>
+        </is>
+      </c>
+      <c r="W16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="inlineStr"/>
+      <c r="Y16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
           <t>10.1017/pan.2023.2</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Out of one, many: Using language models to simulate human samples</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Lisa P. Argyle,Ethan C. Busby,Nancy Fulda2, Joshua R. Gubler,Christopher Rytting and David Wingate</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>2023-07</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>Social Simulation</t>
         </is>
       </c>
-      <c r="F16" s="3" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>LLM's well-documented propensity to replicate societal biases is often viewed as a liability, but this paper reconsiders it as a potential asset, suggesting these biases reflect the complex, fine-grained attitudinal distributions embedded within human subpopulations.
 [翻译]模型复制社会偏见的倾向通常被视为缺陷，但本文将其重新视为一种潜在优势，认为这些偏见反映了内嵌于人类亚群体中复杂、细粒度的态度分布。</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>(i) proposing the novel concept of “algorithmic fidelity” and its four criteria, establishing a framework to quantify how well LLMs simulate human populations; (ii) introducing “silicon sampling,” a method that conditions models on real demographic backstories to generate representative virtual samples
 [翻译] (i) 提出“算法保真度”新概念及其四个标准，建立了量化LLM模拟人类群体效果的框架；(ii) 引入“硅采样”方法，基于真实人口背景故事对模型进行条件化，以生成有代表性的虚拟样本</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>(i) extracting sociodemographic profiles from large-scale human surveys; (ii) constructing first-person narrative backstories as conditioning prompts; (iii) feeding these prompts into GPT-3 to generate responses (“silicon samples”) to specific questions; (iv) statistically comparing the generated data with original human data to validate algorithmic fidelity across various metrics.
 [翻译] (i) 从大规模人类调查中提取社会人口学特征；(ii) 构建第一人称叙事背景故事作为条件化提示；(iii) 将这些提示输入GPT-3，以生成针对特定问题的回答（“硅样本”）；(iv) 从多维度统计上比较生成数据与原始人类数据，以验证算法保真度。[通俗核心]方法很简单，使用提示词模版填入符合人口统计特征的受访者特征，让LLM输出指定回答，与人类样本做对齐</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>The study demonstrates that GPT-3 exhibits high algorithmic fidelity: human evaluators struggle to distinguish its outputs from human text, and its generated data closely replicates not only aggregate opinion distributions (e.g., vote shares) but also the complex correlational structures between demographics, attitudes, and behaviors found in real human data.
 [翻译] 研究表明GPT-3表现出高算法保真度：人类评估者难以区分其输出与人类文本，其生成的数据不仅紧密复现了聚合意见分布（如投票份额），还复现了真实人类数据中人口特征、态度和行为之间复杂的相关性结构。</t>
         </is>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>提示词中显示标明角色身份，会让LLM过度重视，有走捷径之嫌</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K17" s="3" t="inlineStr">
         <is>
           <t>https://www.cambridge.org/core/journals/political-analysis/article/out-of-one-many-using-language-models-to-simulate-human-samples/035D7C8A55B237942FB6DBAD7CAA4E49</t>
         </is>
       </c>
-      <c r="L16" s="3" t="inlineStr"/>
-      <c r="M16" s="3" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr"/>
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>Political Analysis</t>
         </is>
       </c>
-      <c r="N16" s="3" t="inlineStr">
+      <c r="N17" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 一源多相：利用语言模型模拟人类样本
 **翻译说明：**
@@ -2380,115 +2514,115 @@
 2.  **主标题</t>
         </is>
       </c>
-      <c r="O16" s="3" t="inlineStr">
+      <c r="O17" s="3" t="inlineStr">
         <is>
           <t>让LLM模仿人类进行社会学实验，通过与真实情况对齐来判断LLM相关预测能力</t>
         </is>
       </c>
-      <c r="P16" s="3" t="inlineStr">
+      <c r="P17" s="3" t="inlineStr">
         <is>
           <t>figures/Out of One, Many.png;figures/Out of One, Many2.png</t>
         </is>
       </c>
-      <c r="Q16" s="3" t="inlineStr">
+      <c r="Q17" s="3" t="inlineStr">
         <is>
           <t>We propose and explore the possibility that language models can be studied as effective proxies for specific human subpopulations in social science research. Practical and research applications of artificial intelligence tools have sometimes been limited by problematic biases (such as racism or sexism), which are often treated as uniform properties of the models. We show that the “algorithmic bias” within one such tool—the GPT-3 language model—is instead both fine-grained and demographically correlated, meaning that proper conditioning will cause it to accurately emulate response distributions from a wide variety of human subgroups. We term this property algorithmic fidelity and explore its extent in GPT-3. We create “silicon samples” by conditioning the model on thousands of sociodemographic backstories from real human participants in multiple large surveys conducted in the United States. We then compare the silicon and human samples to demonstrate that the information contained in GPT-3 goes far beyond surface similarity. It is nuanced, multifaceted, and reflects the complex interplay between ideas, attitudes, and sociocultural context that characterize human attitudes. We suggest that language models with sufficient algorithmic fidelity thus constitute a novel and powerful tool to advance understanding of humans and society across a variety of disciplines.</t>
         </is>
       </c>
-      <c r="R16" s="3" t="inlineStr">
+      <c r="R17" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S16" s="3" t="inlineStr">
+      <c r="S17" s="3" t="inlineStr">
         <is>
           <t>[引用文]Argyle et al. (2023) represent a pivotal shift from viewing LLMs as mere pattern recognition tools to employing them as tools for social simulation. Their work provides a paradigmatic methodology—centered on the concept of “algorithmic fidelity”—for experimentally testing whether and how the statistical predictions of an LLM align with nuanced human societal patterns. By conditioning GPT-3 on detailed demographic backstories within prompts (“silicon sampling”), they demonstrated that the model itself could generate attitudes and internal correlations that closely mirror those of real human subgroups. This marks a transition from goal-oriented text generation to the study of simulated social emergence.
 [翻译]
 Argyle等人(2023)的研究标志着一个关键转变：从将LLM视为单纯的模式识别工具，转向将其用作社会仿真的工具。他们的工作提供了一种范式方法——围绕“算法保真度”概念——来实验性地测试LLM的统计预测是否及如何与人类社会模式对齐。通过在提示词中为GPT-3施加详细的人口背景故事条件（“硅采样”），他们证明了该模型能够涌现出与真实人类亚群体高度吻合的态度及内部关联。标志着从目标导向的文本生成向模拟社会涌现研究的过渡</t>
         </is>
       </c>
-      <c r="T16" s="3" t="b">
+      <c r="T17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U16" s="3" t="inlineStr"/>
-      <c r="V16" s="3" t="inlineStr">
+      <c r="U17" s="3" t="inlineStr"/>
+      <c r="V17" s="3" t="inlineStr">
         <is>
           <t>2026-01-25 09:22:21</t>
         </is>
       </c>
-      <c r="W16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3" t="inlineStr"/>
-      <c r="Y16" s="3" t="b">
+      <c r="W17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3" t="inlineStr"/>
+      <c r="Y17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>10.18653/v1/2024.findings-emnlp.153</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>Are Large Language Models (LLMs) Good Social Predictors?</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Kaiqi Yang*,Hang Li*,Hongzhi Wen,Tai-Quan Peng,Jiliang Tang,Hui Liu</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>Social Simulation</t>
         </is>
       </c>
-      <c r="F17" s="3" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>论文Out of one, many: Using language models to simulate human samples可能利用了捷径特性，且能力难以从宏观细化到个体</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>[AI generated] Proposes a novel social prediction benchmark (Soc-PRF) categorizing features by mutability to rigorously evaluate LLMs and reveals their reliance on input shortcuts.
 [翻译]：提出了一个按特征可变性分类的新颖社会预测基准（Soc-PRF），以严格评估LLMs，并揭示了其对输入捷径的依赖。</t>
         </is>
       </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>First, a replication and ablation study on the ANES voting dataset quantifies the performance drop when removing highly correlated “shortcut” inputs (e.g., party ID). Second, a new benchmark is constructed using Gallup World Poll data. Features are categorized by mutability (low: demographics; high: attitudes/behaviors). Three prediction settings are defined—low-to-high, high-to-low, and high-to-high—simulating realistic data collection scenarios. Multiple LLMs are evaluated under zero-shot prompting, with AUC as the primary metric.
 [翻译]：首先，在ANES投票数据集上进行复制和消融研究，量化了移除高度相关的“捷径”输入（如党派身份）后的性能下降。其次，使用盖洛普世界民意调查数据构建了一个新基准。特征按可变性分类（低：人口统计学特征；高：态度/行为）。定义了三种预测设定——低推高、高推低和高推高——以模拟现实的数据收集场景。在零样本提示下评估了多种LLMs，以AUC为主要指标。</t>
         </is>
       </c>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>The high performance in prior voting prediction vanishes when shortcuts are removed, with accuracy dropping to near-random levels (e.g., ~61% for GPT-3.5). In the stringent Soc-PRF settings devoid of shortcuts, all tested LLMs (including GPT-4) perform no better than random guessing (AUC ~50). [翻译]： 先前投票预测中的高性能消失，准确率下降至接近随机水平（例如，GPT-3.5约为61%）。在排除捷径的严格Soc-PRF设定中，所有测试的LLMs（包括GPT-4）的表现均不优于随机猜测（AUC ~50）。</t>
         </is>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>[AI generated] The promising performance of LLMs in social prediction heavily relies on unrealistic shortcut features, and their ability to generalize to real-world scenarios with ordinary inputs remains questionable. [翻译]：LLMs在社会预测中的优异表现严重依赖不现实的捷径特征，其使用普通输入泛化到真实场景的能力存疑。</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>https://aclanthology.org/2024.findings-emnlp.153</t>
         </is>
       </c>
-      <c r="L17" s="3" t="inlineStr"/>
-      <c r="M17" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr"/>
+      <c r="M18" s="3" t="inlineStr">
         <is>
           <t>EMNLP Findings</t>
         </is>
       </c>
-      <c r="N17" s="3" t="inlineStr">
+      <c r="N18" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 大语言模型是优秀的社会预测器吗？
 **翻译说明：**
@@ -2497,47 +2631,47 @@
 3.  **简洁性：** 标题简洁明了，直接点明论文的核心</t>
         </is>
       </c>
-      <c r="O17" s="3" t="inlineStr">
+      <c r="O18" s="3" t="inlineStr">
         <is>
           <t>消融了最能影响预测结果的“意识形态自我定位”和“党派认同”，发现预测能力接近于随机</t>
         </is>
       </c>
-      <c r="P17" s="3" t="inlineStr">
+      <c r="P18" s="3" t="inlineStr">
         <is>
           <t>figures/anti-Out of One, Many.png</t>
         </is>
       </c>
-      <c r="Q17" s="3" t="inlineStr">
+      <c r="Q18" s="3" t="inlineStr">
         <is>
           <t>With the recent advancement of Large Language Models (LLMs), efforts have been made to leverage LLMs in crucial social science study methods, including predicting human features of social life such as presidential voting. Existing works suggest that LLMs are capable of generating human-like responses. Nevertheless, it is unclear how well LLMs work and where the plausible predictions derive from. This paper critically examines the performance of LLMs as social predictors, pointing out the source of correct predictions and limitations. Based on the notion of mutability that classifies social features, we design three realistic settings and a novel social prediction task, where the LLMs make predictions with input features of the same mutability and accessibility with the response feature. We find that the promising performance achieved by previous studies is because of input shortcut features to the response, which are hard to capture in reality; the performance degrades dramatically to near-random after removing the shortcuts. With the comprehensive investigations on various LLMs, we reveal that LLMs struggle to work as expected on social prediction when given ordinarily available input features without shortcuts. We further investigate possible reasons for this phenomenon and suggest potential ways to enhance LLMs for social prediction.</t>
         </is>
       </c>
-      <c r="R17" s="3" t="inlineStr">
+      <c r="R18" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S17" s="3" t="inlineStr">
+      <c r="S18" s="3" t="inlineStr">
         <is>
           <t>[引用文]As the field evolves from pattern recognition towards social simulation and emergent understanding, a critical reassessment of our tools is imperative. Yang et al. (2024) provide a pivotal corrective in this transition. Their work challenges the optimistic narrative that LLMs can serve as accurate social predictors. They demonstrate that previously reported successes in tasks like vote prediction critically depended on "shortcut features" (e.g., using party identification to predict vote choice) and, by introducing a novel shortcut-free benchmark (Soc-PRF), reveal a significant gap. In settings devoid of such shortcuts, even state-of-the-art LLMs perform at random levels. This finding underscores a fundamental limitation: while current LLMs are excellent pattern recognizers of surface correlations, they lack the deeper causal or contextual reasoning necessary for genuine social simulation and the emergence of robust socio-behavioral understanding. Their research suggests that achieving true social fidelity requires moving beyond exploiting statistical artifacts in data.
 [翻译]
 随着该领域从模式识别向社会仿真与涌现性理解演进，对我们的工具进行批判性重估势在必行。Yang等人（2024）在这一转变中提供了一个关键修正。他们的工作挑战了“LLMs能作为准确社会预测器”的乐观论述。他们证明，先前在投票预测等任务中报告的成功，关键依赖于“捷径特征”（例如，用党派身份预测投票选择），并通过引入一个新颖的、无捷径的基准（Soc-PRF），揭示了一个显著的差距。在缺少此类捷径的设定中，即使是最先进的LLMs表现也处于随机水平。这一发现强调了一个根本性局限：当前的LLMs虽然是优秀的表面相关性模式识别器，但缺乏真正的社会仿真以及涌现出稳健社会行为理解所必需的、更深层的因果或语境推理能力。他们的研究表明，要实现真正的社会拟真度，需要超越对数据中统计假象的利用。</t>
         </is>
       </c>
-      <c r="T17" s="3" t="b">
+      <c r="T18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U17" s="3" t="inlineStr"/>
-      <c r="V17" s="3" t="inlineStr">
+      <c r="U18" s="3" t="inlineStr"/>
+      <c r="V18" s="3" t="inlineStr">
         <is>
           <t>2026-01-25 09:22:21</t>
         </is>
       </c>
-      <c r="W17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3" t="inlineStr"/>
-      <c r="Y17" s="3" t="b">
+      <c r="W18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="inlineStr"/>
+      <c r="Y18" s="3" t="b">
         <v>0</v>
       </c>
     </row>
